--- a/Code/Results/Cases/Case_3_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_45/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.931123479268138</v>
+        <v>1.931123479267995</v>
       </c>
       <c r="C2">
-        <v>0.4350851971105101</v>
+        <v>0.4350851971101406</v>
       </c>
       <c r="D2">
-        <v>0.02352658270510588</v>
+        <v>0.02352658270531194</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -427,7 +427,7 @@
         <v>2.064140112570072</v>
       </c>
       <c r="G2">
-        <v>1.644083783486849</v>
+        <v>1.644083783486863</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.803322553194803</v>
+        <v>2.803322553194789</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.669194087619985</v>
+        <v>1.669194087619815</v>
       </c>
       <c r="C3">
-        <v>0.3823463261786912</v>
+        <v>0.3823463261787765</v>
       </c>
       <c r="D3">
-        <v>0.02328264072447439</v>
+        <v>0.02328264072454544</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.821409634776273</v>
+        <v>1.821409634776288</v>
       </c>
       <c r="G3">
-        <v>1.455170806765025</v>
+        <v>1.455170806765011</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.378590204033543</v>
+        <v>2.378590204033529</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.509945467488507</v>
+        <v>1.509945467488592</v>
       </c>
       <c r="C4">
-        <v>0.3501086450471576</v>
+        <v>0.3501086450473565</v>
       </c>
       <c r="D4">
-        <v>0.02319084648345893</v>
+        <v>0.02319084648359393</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.445377675800415</v>
+        <v>1.44537767580033</v>
       </c>
       <c r="C5">
-        <v>0.3369963963902052</v>
+        <v>0.3369963963899067</v>
       </c>
       <c r="D5">
-        <v>0.02316613458760131</v>
+        <v>0.02316613458768657</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.028431130801181</v>
+        <v>2.028431130801195</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.434674093810941</v>
+        <v>1.434674093811026</v>
       </c>
       <c r="C6">
-        <v>0.334820300540585</v>
+        <v>0.3348203005405566</v>
       </c>
       <c r="D6">
-        <v>0.02316274740854496</v>
+        <v>0.02316274740862312</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.60962578603727</v>
+        <v>1.609625786037256</v>
       </c>
       <c r="G6">
         <v>1.290689591129095</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.509073445852664</v>
+        <v>1.509073445852636</v>
       </c>
       <c r="C7">
-        <v>0.3499317225077903</v>
+        <v>0.3499317225076197</v>
       </c>
       <c r="D7">
-        <v>0.023190464123374</v>
+        <v>0.02319046412338821</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.676217116458844</v>
+        <v>1.67621711645883</v>
       </c>
       <c r="G7">
-        <v>1.342369952969719</v>
+        <v>1.342369952969705</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.126920327342134</v>
+        <v>2.126920327342106</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.840439351397805</v>
+        <v>1.840439351397947</v>
       </c>
       <c r="C8">
-        <v>0.4168638084567817</v>
+        <v>0.4168638084566965</v>
       </c>
       <c r="D8">
-        <v>0.0234292187239582</v>
+        <v>0.02342921872384451</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.979392775978212</v>
+        <v>1.979392775978226</v>
       </c>
       <c r="G8">
         <v>1.578081341350412</v>
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.506224099253416</v>
+        <v>2.506224099253302</v>
       </c>
       <c r="C9">
         <v>0.5498159216910494</v>
       </c>
       <c r="D9">
-        <v>0.02445862210645089</v>
+        <v>0.02445862210635497</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>2.618224602956587</v>
       </c>
       <c r="G9">
-        <v>2.076685803674835</v>
+        <v>2.076685803674806</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.798364915093288</v>
+        <v>3.798364915093302</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.010492836343133</v>
+        <v>3.01049283634319</v>
       </c>
       <c r="C10">
-        <v>0.6493488956600402</v>
+        <v>0.6493488956599833</v>
       </c>
       <c r="D10">
-        <v>0.02573145177033709</v>
+        <v>0.0257314517700955</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.127078885225018</v>
+        <v>3.127078885224961</v>
       </c>
       <c r="G10">
-        <v>2.475456628252942</v>
+        <v>2.475456628252957</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.754337366022654</v>
+        <v>4.754337366022696</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.244532916355013</v>
+        <v>3.244532916355183</v>
       </c>
       <c r="C11">
-        <v>0.6952148497051667</v>
+        <v>0.6952148497049393</v>
       </c>
       <c r="D11">
-        <v>0.02647521437992495</v>
+        <v>0.02647521437993205</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.370674222682709</v>
+        <v>3.370674222682737</v>
       </c>
       <c r="G11">
         <v>2.666821761745354</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.230300941916568</v>
+        <v>5.230300941916582</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,19 +795,19 @@
         <v>3.333950897801969</v>
       </c>
       <c r="C12">
-        <v>0.712681692877652</v>
+        <v>0.7126816928774531</v>
       </c>
       <c r="D12">
-        <v>0.02678648528596383</v>
+        <v>0.02678648528605621</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.465034819173866</v>
+        <v>3.465034819173923</v>
       </c>
       <c r="G12">
-        <v>2.741029920619781</v>
+        <v>2.741029920619809</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.418394933231468</v>
+        <v>5.418394933231511</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.314655816713071</v>
+        <v>3.314655816713014</v>
       </c>
       <c r="C13">
-        <v>0.7089153232967931</v>
+        <v>0.7089153232965941</v>
       </c>
       <c r="D13">
-        <v>0.02671801675946384</v>
+        <v>0.02671801675936436</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.444611525302889</v>
+        <v>3.444611525302861</v>
       </c>
       <c r="G13">
-        <v>2.724964630107962</v>
+        <v>2.724964630107934</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.377497192913296</v>
+        <v>5.377497192913324</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.251872763679899</v>
+        <v>3.251872763680012</v>
       </c>
       <c r="C14">
-        <v>0.6966498137759913</v>
+        <v>0.6966498137762187</v>
       </c>
       <c r="D14">
-        <v>0.02650018897784534</v>
+        <v>0.02650018897786666</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.378392449908858</v>
+        <v>3.378392449908802</v>
       </c>
       <c r="G14">
         <v>2.672889951497908</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.245604349773672</v>
+        <v>5.2456043497737</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.213523351911363</v>
+        <v>3.213523351911306</v>
       </c>
       <c r="C15">
         <v>0.6891500252631033</v>
       </c>
       <c r="D15">
-        <v>0.02637082617468067</v>
+        <v>0.02637082617441067</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.338119569300233</v>
+        <v>3.338119569300261</v>
       </c>
       <c r="G15">
         <v>2.641230063083697</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.16590928910108</v>
+        <v>5.165909289101066</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.995301600603455</v>
+        <v>2.995301600603284</v>
       </c>
       <c r="C16">
-        <v>0.6463645041729933</v>
+        <v>0.6463645041729649</v>
       </c>
       <c r="D16">
-        <v>0.02568663083063782</v>
+        <v>0.02568663083075151</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.72421022219649</v>
+        <v>4.724210222196504</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,16 +985,16 @@
         <v>2.862704231736643</v>
       </c>
       <c r="C17">
-        <v>0.6202779162202887</v>
+        <v>0.6202779162202603</v>
       </c>
       <c r="D17">
-        <v>0.02531282961183479</v>
+        <v>0.02531282961183123</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.97571223549096</v>
+        <v>2.975712235490988</v>
       </c>
       <c r="G17">
         <v>2.356695956655045</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.464952126842135</v>
+        <v>4.464952126842121</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.786866883189987</v>
+        <v>2.786866883190044</v>
       </c>
       <c r="C18">
-        <v>0.6053281524145575</v>
+        <v>0.6053281524143017</v>
       </c>
       <c r="D18">
-        <v>0.02511290211468875</v>
+        <v>0.0251129021145502</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.898762861928617</v>
+        <v>2.898762861928645</v>
       </c>
       <c r="G18">
-        <v>2.296367223492751</v>
+        <v>2.296367223492794</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.319553349474447</v>
+        <v>4.319553349474504</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.761259770303013</v>
+        <v>2.76125977030307</v>
       </c>
       <c r="C19">
-        <v>0.6002753396073501</v>
+        <v>0.6002753396071512</v>
       </c>
       <c r="D19">
-        <v>0.02504764350941358</v>
+        <v>0.02504764350937094</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.8728903376917</v>
+        <v>2.872890337691786</v>
       </c>
       <c r="G19">
-        <v>2.276089890369491</v>
+        <v>2.276089890369519</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.27091372662818</v>
+        <v>4.270913726628208</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,19 +1099,19 @@
         <v>2.876774169447401</v>
       </c>
       <c r="C20">
-        <v>0.6230491259952942</v>
+        <v>0.6230491259950384</v>
       </c>
       <c r="D20">
-        <v>0.02535102352501184</v>
+        <v>0.0253510235247596</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.990042253613268</v>
+        <v>2.990042253613296</v>
       </c>
       <c r="G20">
-        <v>2.367934131246244</v>
+        <v>2.367934131246258</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.492153628347111</v>
+        <v>4.492153628347054</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.270291128656879</v>
+        <v>3.270291128656652</v>
       </c>
       <c r="C21">
         <v>0.7002497211695129</v>
       </c>
       <c r="D21">
-        <v>0.02656331042658522</v>
+        <v>0.02656331042657456</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.397781735251215</v>
+        <v>3.397781735251158</v>
       </c>
       <c r="G21">
-        <v>2.688135419673259</v>
+        <v>2.68813541967323</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.532159057494994</v>
+        <v>3.53215905749488</v>
       </c>
       <c r="C22">
-        <v>0.7512825981571609</v>
+        <v>0.7512825981574451</v>
       </c>
       <c r="D22">
-        <v>0.02753242956475077</v>
+        <v>0.02753242956477919</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.676843654668573</v>
+        <v>3.676843654668517</v>
       </c>
       <c r="G22">
-        <v>2.907764811098843</v>
+        <v>2.907764811098801</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.848999043834738</v>
+        <v>5.848999043834667</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1216,16 +1216,16 @@
         <v>0.723988660184915</v>
       </c>
       <c r="D23">
-        <v>0.02699656497126668</v>
+        <v>0.02699656497137681</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.526603229991252</v>
+        <v>3.526603229991281</v>
       </c>
       <c r="G23">
-        <v>2.789473204120227</v>
+        <v>2.789473204120242</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.542329485716294</v>
+        <v>5.542329485716323</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.870411930633793</v>
+        <v>2.870411930633566</v>
       </c>
       <c r="C24">
-        <v>0.6217961143752575</v>
+        <v>0.621796114375428</v>
       </c>
       <c r="D24">
-        <v>0.02533370983388394</v>
+        <v>0.02533370983376315</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>2.983560320362045</v>
       </c>
       <c r="G24">
-        <v>2.362850609073675</v>
+        <v>2.362850609073689</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.479844590305248</v>
+        <v>4.47984459030522</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,19 +1289,19 @@
         <v>2.323879220069045</v>
       </c>
       <c r="C25">
-        <v>0.513584997507877</v>
+        <v>0.513584997508076</v>
       </c>
       <c r="D25">
-        <v>0.02410421435793353</v>
+        <v>0.02410421435817511</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.439493931442826</v>
+        <v>2.439493931442868</v>
       </c>
       <c r="G25">
-        <v>1.936948229621663</v>
+        <v>1.936948229621649</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.472885713489106</v>
+        <v>3.472885713489092</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_45/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.931123479267995</v>
+        <v>1.931123479268138</v>
       </c>
       <c r="C2">
-        <v>0.4350851971101406</v>
+        <v>0.4350851971105101</v>
       </c>
       <c r="D2">
-        <v>0.02352658270531194</v>
+        <v>0.02352658270510588</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -427,7 +427,7 @@
         <v>2.064140112570072</v>
       </c>
       <c r="G2">
-        <v>1.644083783486863</v>
+        <v>1.644083783486849</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.803322553194789</v>
+        <v>2.803322553194803</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.669194087619815</v>
+        <v>1.669194087619985</v>
       </c>
       <c r="C3">
-        <v>0.3823463261787765</v>
+        <v>0.3823463261786912</v>
       </c>
       <c r="D3">
-        <v>0.02328264072454544</v>
+        <v>0.02328264072447439</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.821409634776288</v>
+        <v>1.821409634776273</v>
       </c>
       <c r="G3">
-        <v>1.455170806765011</v>
+        <v>1.455170806765025</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.378590204033529</v>
+        <v>2.378590204033543</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.509945467488592</v>
+        <v>1.509945467488507</v>
       </c>
       <c r="C4">
-        <v>0.3501086450473565</v>
+        <v>0.3501086450471576</v>
       </c>
       <c r="D4">
-        <v>0.02319084648359393</v>
+        <v>0.02319084648345893</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.44537767580033</v>
+        <v>1.445377675800415</v>
       </c>
       <c r="C5">
-        <v>0.3369963963899067</v>
+        <v>0.3369963963902052</v>
       </c>
       <c r="D5">
-        <v>0.02316613458768657</v>
+        <v>0.02316613458760131</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.028431130801195</v>
+        <v>2.028431130801181</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.434674093811026</v>
+        <v>1.434674093810941</v>
       </c>
       <c r="C6">
-        <v>0.3348203005405566</v>
+        <v>0.334820300540585</v>
       </c>
       <c r="D6">
-        <v>0.02316274740862312</v>
+        <v>0.02316274740854496</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.609625786037256</v>
+        <v>1.60962578603727</v>
       </c>
       <c r="G6">
         <v>1.290689591129095</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.509073445852636</v>
+        <v>1.509073445852664</v>
       </c>
       <c r="C7">
-        <v>0.3499317225076197</v>
+        <v>0.3499317225077903</v>
       </c>
       <c r="D7">
-        <v>0.02319046412338821</v>
+        <v>0.023190464123374</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.67621711645883</v>
+        <v>1.676217116458844</v>
       </c>
       <c r="G7">
-        <v>1.342369952969705</v>
+        <v>1.342369952969719</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.126920327342106</v>
+        <v>2.126920327342134</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.840439351397947</v>
+        <v>1.840439351397805</v>
       </c>
       <c r="C8">
-        <v>0.4168638084566965</v>
+        <v>0.4168638084567817</v>
       </c>
       <c r="D8">
-        <v>0.02342921872384451</v>
+        <v>0.0234292187239582</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.979392775978226</v>
+        <v>1.979392775978212</v>
       </c>
       <c r="G8">
         <v>1.578081341350412</v>
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.506224099253302</v>
+        <v>2.506224099253416</v>
       </c>
       <c r="C9">
         <v>0.5498159216910494</v>
       </c>
       <c r="D9">
-        <v>0.02445862210635497</v>
+        <v>0.02445862210645089</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>2.618224602956587</v>
       </c>
       <c r="G9">
-        <v>2.076685803674806</v>
+        <v>2.076685803674835</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.798364915093302</v>
+        <v>3.798364915093288</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.01049283634319</v>
+        <v>3.010492836343133</v>
       </c>
       <c r="C10">
-        <v>0.6493488956599833</v>
+        <v>0.6493488956600402</v>
       </c>
       <c r="D10">
-        <v>0.0257314517700955</v>
+        <v>0.02573145177033709</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.127078885224961</v>
+        <v>3.127078885225018</v>
       </c>
       <c r="G10">
-        <v>2.475456628252957</v>
+        <v>2.475456628252942</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.754337366022696</v>
+        <v>4.754337366022654</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.244532916355183</v>
+        <v>3.244532916355013</v>
       </c>
       <c r="C11">
-        <v>0.6952148497049393</v>
+        <v>0.6952148497051667</v>
       </c>
       <c r="D11">
-        <v>0.02647521437993205</v>
+        <v>0.02647521437992495</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.370674222682737</v>
+        <v>3.370674222682709</v>
       </c>
       <c r="G11">
         <v>2.666821761745354</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.230300941916582</v>
+        <v>5.230300941916568</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,19 +795,19 @@
         <v>3.333950897801969</v>
       </c>
       <c r="C12">
-        <v>0.7126816928774531</v>
+        <v>0.712681692877652</v>
       </c>
       <c r="D12">
-        <v>0.02678648528605621</v>
+        <v>0.02678648528596383</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.465034819173923</v>
+        <v>3.465034819173866</v>
       </c>
       <c r="G12">
-        <v>2.741029920619809</v>
+        <v>2.741029920619781</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.418394933231511</v>
+        <v>5.418394933231468</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.314655816713014</v>
+        <v>3.314655816713071</v>
       </c>
       <c r="C13">
-        <v>0.7089153232965941</v>
+        <v>0.7089153232967931</v>
       </c>
       <c r="D13">
-        <v>0.02671801675936436</v>
+        <v>0.02671801675946384</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.444611525302861</v>
+        <v>3.444611525302889</v>
       </c>
       <c r="G13">
-        <v>2.724964630107934</v>
+        <v>2.724964630107962</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.377497192913324</v>
+        <v>5.377497192913296</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.251872763680012</v>
+        <v>3.251872763679899</v>
       </c>
       <c r="C14">
-        <v>0.6966498137762187</v>
+        <v>0.6966498137759913</v>
       </c>
       <c r="D14">
-        <v>0.02650018897786666</v>
+        <v>0.02650018897784534</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.378392449908802</v>
+        <v>3.378392449908858</v>
       </c>
       <c r="G14">
         <v>2.672889951497908</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.2456043497737</v>
+        <v>5.245604349773672</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.213523351911306</v>
+        <v>3.213523351911363</v>
       </c>
       <c r="C15">
         <v>0.6891500252631033</v>
       </c>
       <c r="D15">
-        <v>0.02637082617441067</v>
+        <v>0.02637082617468067</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.338119569300261</v>
+        <v>3.338119569300233</v>
       </c>
       <c r="G15">
         <v>2.641230063083697</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.165909289101066</v>
+        <v>5.16590928910108</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.995301600603284</v>
+        <v>2.995301600603455</v>
       </c>
       <c r="C16">
-        <v>0.6463645041729649</v>
+        <v>0.6463645041729933</v>
       </c>
       <c r="D16">
-        <v>0.02568663083075151</v>
+        <v>0.02568663083063782</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.724210222196504</v>
+        <v>4.72421022219649</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,16 +985,16 @@
         <v>2.862704231736643</v>
       </c>
       <c r="C17">
-        <v>0.6202779162202603</v>
+        <v>0.6202779162202887</v>
       </c>
       <c r="D17">
-        <v>0.02531282961183123</v>
+        <v>0.02531282961183479</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.975712235490988</v>
+        <v>2.97571223549096</v>
       </c>
       <c r="G17">
         <v>2.356695956655045</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.464952126842121</v>
+        <v>4.464952126842135</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.786866883190044</v>
+        <v>2.786866883189987</v>
       </c>
       <c r="C18">
-        <v>0.6053281524143017</v>
+        <v>0.6053281524145575</v>
       </c>
       <c r="D18">
-        <v>0.0251129021145502</v>
+        <v>0.02511290211468875</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.898762861928645</v>
+        <v>2.898762861928617</v>
       </c>
       <c r="G18">
-        <v>2.296367223492794</v>
+        <v>2.296367223492751</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.319553349474504</v>
+        <v>4.319553349474447</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.76125977030307</v>
+        <v>2.761259770303013</v>
       </c>
       <c r="C19">
-        <v>0.6002753396071512</v>
+        <v>0.6002753396073501</v>
       </c>
       <c r="D19">
-        <v>0.02504764350937094</v>
+        <v>0.02504764350941358</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.872890337691786</v>
+        <v>2.8728903376917</v>
       </c>
       <c r="G19">
-        <v>2.276089890369519</v>
+        <v>2.276089890369491</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.270913726628208</v>
+        <v>4.27091372662818</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,19 +1099,19 @@
         <v>2.876774169447401</v>
       </c>
       <c r="C20">
-        <v>0.6230491259950384</v>
+        <v>0.6230491259952942</v>
       </c>
       <c r="D20">
-        <v>0.0253510235247596</v>
+        <v>0.02535102352501184</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.990042253613296</v>
+        <v>2.990042253613268</v>
       </c>
       <c r="G20">
-        <v>2.367934131246258</v>
+        <v>2.367934131246244</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.492153628347054</v>
+        <v>4.492153628347111</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.270291128656652</v>
+        <v>3.270291128656879</v>
       </c>
       <c r="C21">
         <v>0.7002497211695129</v>
       </c>
       <c r="D21">
-        <v>0.02656331042657456</v>
+        <v>0.02656331042658522</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.397781735251158</v>
+        <v>3.397781735251215</v>
       </c>
       <c r="G21">
-        <v>2.68813541967323</v>
+        <v>2.688135419673259</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.53215905749488</v>
+        <v>3.532159057494994</v>
       </c>
       <c r="C22">
-        <v>0.7512825981574451</v>
+        <v>0.7512825981571609</v>
       </c>
       <c r="D22">
-        <v>0.02753242956477919</v>
+        <v>0.02753242956475077</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.676843654668517</v>
+        <v>3.676843654668573</v>
       </c>
       <c r="G22">
-        <v>2.907764811098801</v>
+        <v>2.907764811098843</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.848999043834667</v>
+        <v>5.848999043834738</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1216,16 +1216,16 @@
         <v>0.723988660184915</v>
       </c>
       <c r="D23">
-        <v>0.02699656497137681</v>
+        <v>0.02699656497126668</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.526603229991281</v>
+        <v>3.526603229991252</v>
       </c>
       <c r="G23">
-        <v>2.789473204120242</v>
+        <v>2.789473204120227</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.542329485716323</v>
+        <v>5.542329485716294</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.870411930633566</v>
+        <v>2.870411930633793</v>
       </c>
       <c r="C24">
-        <v>0.621796114375428</v>
+        <v>0.6217961143752575</v>
       </c>
       <c r="D24">
-        <v>0.02533370983376315</v>
+        <v>0.02533370983388394</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>2.983560320362045</v>
       </c>
       <c r="G24">
-        <v>2.362850609073689</v>
+        <v>2.362850609073675</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.47984459030522</v>
+        <v>4.479844590305248</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,19 +1289,19 @@
         <v>2.323879220069045</v>
       </c>
       <c r="C25">
-        <v>0.513584997508076</v>
+        <v>0.513584997507877</v>
       </c>
       <c r="D25">
-        <v>0.02410421435817511</v>
+        <v>0.02410421435793353</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.439493931442868</v>
+        <v>2.439493931442826</v>
       </c>
       <c r="G25">
-        <v>1.936948229621649</v>
+        <v>1.936948229621663</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.472885713489092</v>
+        <v>3.472885713489106</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_45/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,31 +406,34 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.931123479268138</v>
+        <v>1.930946345674073</v>
       </c>
       <c r="C2">
-        <v>0.4350851971105101</v>
+        <v>0.4349935033998236</v>
       </c>
       <c r="D2">
-        <v>0.02352658270510588</v>
+        <v>0.02339016702936547</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.064140112570072</v>
+        <v>2.059846230731324</v>
       </c>
       <c r="G2">
-        <v>1.644083783486849</v>
+        <v>0.5313388673768884</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.112257295322834</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,33 +445,36 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.803322553194803</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>2.803269780672608</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.669194087619985</v>
+        <v>1.669078413396079</v>
       </c>
       <c r="C3">
-        <v>0.3823463261786912</v>
+        <v>0.3822827358206666</v>
       </c>
       <c r="D3">
-        <v>0.02328264072447439</v>
+        <v>0.02316053791165373</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.821409634776273</v>
+        <v>1.817651311296061</v>
       </c>
       <c r="G3">
-        <v>1.455170806765025</v>
+        <v>0.4657676171390932</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.9895742851188487</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,33 +486,36 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.378590204033543</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>2.378558839620041</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.509945467488507</v>
+        <v>1.509862735544232</v>
       </c>
       <c r="C4">
-        <v>0.3501086450471576</v>
+        <v>0.3500611725373517</v>
       </c>
       <c r="D4">
-        <v>0.02319084648345893</v>
+        <v>0.02307721311847644</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.677000970721522</v>
+        <v>1.673563628980006</v>
       </c>
       <c r="G4">
-        <v>1.34297850047156</v>
+        <v>0.4267471769786937</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.9167975044005061</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,33 +527,36 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.128275040557014</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2.128253912127732</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.445377675800415</v>
+        <v>1.445307325861336</v>
       </c>
       <c r="C5">
-        <v>0.3369963963902052</v>
+        <v>0.3369552514240439</v>
       </c>
       <c r="D5">
-        <v>0.02316613458760131</v>
+        <v>0.02305588432896855</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.619170942413831</v>
+        <v>1.61586276910208</v>
       </c>
       <c r="G5">
-        <v>1.298095202814878</v>
+        <v>0.4111172443778202</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.8877031847321604</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,33 +568,36 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.028431130801181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>2.028413609082733</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.434674093810941</v>
+        <v>1.434605741368784</v>
       </c>
       <c r="C6">
-        <v>0.334820300540585</v>
+        <v>0.3347801929635779</v>
       </c>
       <c r="D6">
-        <v>0.02316274740854496</v>
+        <v>0.02305305510953559</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.60962578603727</v>
+        <v>1.606338971502765</v>
       </c>
       <c r="G6">
-        <v>1.290689591129095</v>
+        <v>0.4085371765730343</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.882903942952737</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,33 +609,36 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2.011970300747009</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>2.011953347946701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.509073445852664</v>
+        <v>1.508990884914141</v>
       </c>
       <c r="C7">
-        <v>0.3499317225077903</v>
+        <v>0.3498843362507387</v>
       </c>
       <c r="D7">
-        <v>0.023190464123374</v>
+        <v>0.02307687664580271</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.676217116458844</v>
+        <v>1.672781522925462</v>
       </c>
       <c r="G7">
-        <v>1.342369952969719</v>
+        <v>0.4265353388264259</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.9164029474137863</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,33 +650,36 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.126920327342134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2.126899249648844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.840439351397805</v>
+        <v>1.840284508404324</v>
       </c>
       <c r="C8">
-        <v>0.4168638084567817</v>
+        <v>0.4167820699039737</v>
       </c>
       <c r="D8">
-        <v>0.0234292187239582</v>
+        <v>0.02329781190985614</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.979392775978212</v>
+        <v>1.975285403778287</v>
       </c>
       <c r="G8">
-        <v>1.578081341350412</v>
+        <v>0.5084464592565467</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.069376588489931</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,33 +691,36 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.654391625603523</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2.654346952956601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.506224099253416</v>
+        <v>2.505880950024675</v>
       </c>
       <c r="C9">
-        <v>0.5498159216910494</v>
+        <v>0.5496554391289123</v>
       </c>
       <c r="D9">
-        <v>0.02445862210645089</v>
+        <v>0.02428911082376928</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.618224602956587</v>
+        <v>2.61271942611674</v>
       </c>
       <c r="G9">
-        <v>2.076685803674835</v>
+        <v>0.6810313791642102</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.393679578953254</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,33 +732,36 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.798364915093288</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>3.798240262648903</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.010492836343133</v>
+        <v>3.009968838057432</v>
       </c>
       <c r="C10">
-        <v>0.6493488956600402</v>
+        <v>0.6491197827664337</v>
       </c>
       <c r="D10">
-        <v>0.02573145177033709</v>
+        <v>0.02553093472683443</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.127078885225018</v>
+        <v>3.120466719886196</v>
       </c>
       <c r="G10">
-        <v>2.475456628252942</v>
+        <v>0.818614243652803</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.653512229942109</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,33 +773,36 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.754337366022654</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>4.754110499527727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.244532916355013</v>
+        <v>3.243913442893131</v>
       </c>
       <c r="C11">
-        <v>0.6952148497051667</v>
+        <v>0.6949511201094651</v>
       </c>
       <c r="D11">
-        <v>0.02647521437992495</v>
+        <v>0.02625961342265626</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.370674222682709</v>
+        <v>3.363531898496348</v>
       </c>
       <c r="G11">
-        <v>2.666821761745354</v>
+        <v>0.8845366624727404</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.778307397620097</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,33 +814,36 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.230300941916568</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>5.23000892911719</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.333950897801969</v>
+        <v>3.333292955034437</v>
       </c>
       <c r="C12">
-        <v>0.712681692877652</v>
+        <v>0.7124042590460817</v>
       </c>
       <c r="D12">
-        <v>0.02678648528596383</v>
+        <v>0.02656499492573872</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.465034819173866</v>
+        <v>3.45768689264753</v>
       </c>
       <c r="G12">
-        <v>2.741029920619781</v>
+        <v>0.9100852533537704</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.826716135023077</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -822,33 +855,36 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.418394933231468</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>5.418074239209673</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.314655816713071</v>
+        <v>3.314006269504546</v>
       </c>
       <c r="C13">
-        <v>0.7089153232967931</v>
+        <v>0.7086408693159854</v>
       </c>
       <c r="D13">
-        <v>0.02671801675946384</v>
+        <v>0.02649780338171226</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.444611525302889</v>
+        <v>3.43730811365495</v>
       </c>
       <c r="G13">
-        <v>2.724964630107962</v>
+        <v>0.904554920787831</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.81623546972375</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,33 +896,36 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.377497192913296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>5.377182883466247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.251872763679899</v>
+        <v>3.251250174408085</v>
       </c>
       <c r="C14">
-        <v>0.6966498137759913</v>
+        <v>0.6963849693435975</v>
       </c>
       <c r="D14">
-        <v>0.02650018897784534</v>
+        <v>0.02628410730114794</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.378392449908858</v>
+        <v>3.371233314612567</v>
       </c>
       <c r="G14">
-        <v>2.672889951497908</v>
+        <v>0.8866261359795544</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.782265598256799</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,33 +937,36 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.245604349773672</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>5.245310067957831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.213523351911363</v>
+        <v>3.21291695988748</v>
       </c>
       <c r="C15">
-        <v>0.6891500252631033</v>
+        <v>0.6888909858865588</v>
       </c>
       <c r="D15">
-        <v>0.02637082617468067</v>
+        <v>0.02615725090437948</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.338119569300233</v>
+        <v>3.331048141691696</v>
       </c>
       <c r="G15">
-        <v>2.641230063083697</v>
+        <v>0.8757240127088579</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.761614880441499</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,33 +978,36 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.16590928910108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>5.165626700806854</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.995301600603455</v>
+        <v>2.994783542421317</v>
       </c>
       <c r="C16">
-        <v>0.6463645041729933</v>
+        <v>0.6461375764613422</v>
       </c>
       <c r="D16">
-        <v>0.02568663083063782</v>
+        <v>0.02548707695053665</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.111433221493826</v>
+        <v>3.104855087247387</v>
       </c>
       <c r="G16">
-        <v>2.463175813391416</v>
+        <v>0.8143816517417548</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.645505609337107</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -974,33 +1019,36 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.72421022219649</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>4.723987139072847</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.862704231736643</v>
+        <v>2.862236710383797</v>
       </c>
       <c r="C17">
-        <v>0.6202779162202887</v>
+        <v>0.6200697473577179</v>
       </c>
       <c r="D17">
-        <v>0.02531282961183479</v>
+        <v>0.02512160358489623</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.97571223549096</v>
+        <v>2.969429267131829</v>
       </c>
       <c r="G17">
-        <v>2.356695956655045</v>
+        <v>0.7776721791459664</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.576096233766691</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,33 +1060,36 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.464952126842135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>4.464760018689333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.786866883189987</v>
+        <v>2.786427215505739</v>
       </c>
       <c r="C18">
-        <v>0.6053281524145575</v>
+        <v>0.6051304608792236</v>
       </c>
       <c r="D18">
-        <v>0.02511290211468875</v>
+        <v>0.02492637655864982</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.898762861928617</v>
+        <v>2.892647237027688</v>
       </c>
       <c r="G18">
-        <v>2.296367223492751</v>
+        <v>0.7568642799816985</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.53678020738019</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,33 +1101,36 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.319553349474447</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>4.31937740942746</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.761259770303013</v>
+        <v>2.760829336285099</v>
       </c>
       <c r="C19">
-        <v>0.6002753396073501</v>
+        <v>0.6000811448586489</v>
       </c>
       <c r="D19">
-        <v>0.02504764350941358</v>
+        <v>0.02486269503878802</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.8728903376917</v>
+        <v>2.866830982229231</v>
       </c>
       <c r="G19">
-        <v>2.276089890369491</v>
+        <v>0.7498688735645374</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.523567168761588</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1088,33 +1142,36 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.27091372662818</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>4.270743008238938</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.876774169447401</v>
+        <v>2.8763013967353</v>
       </c>
       <c r="C20">
-        <v>0.6230491259952942</v>
+        <v>0.6228389932588243</v>
       </c>
       <c r="D20">
-        <v>0.02535102352501184</v>
+        <v>0.02515892047876633</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.990042253613268</v>
+        <v>2.983728122182669</v>
       </c>
       <c r="G20">
-        <v>2.367934131246244</v>
+        <v>0.7815475636913902</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.583420894699159</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,33 +1183,36 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.492153628347111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>4.491958400969779</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.270291128656879</v>
+        <v>3.269660687752662</v>
       </c>
       <c r="C21">
-        <v>0.7002497211695129</v>
+        <v>0.69998207129197</v>
       </c>
       <c r="D21">
-        <v>0.02656331042658522</v>
+        <v>0.02634602033149847</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.397781735251215</v>
+        <v>3.390580363475237</v>
       </c>
       <c r="G21">
-        <v>2.688135419673259</v>
+        <v>0.8918754036359076</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.79221026004997</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,33 +1224,36 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.28411212447584</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>5.283812083140759</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.532159057494994</v>
+        <v>3.531411818946367</v>
       </c>
       <c r="C22">
-        <v>0.7512825981571609</v>
+        <v>0.7509738219808071</v>
       </c>
       <c r="D22">
-        <v>0.02753242956475077</v>
+        <v>0.02729761806740427</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.676843654668573</v>
+        <v>3.669033487908422</v>
       </c>
       <c r="G22">
-        <v>2.907764811098843</v>
+        <v>0.9674615442816048</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.935511456494197</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,33 +1265,36 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.848999043834738</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>5.848605873966576</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.39192310141874</v>
+        <v>3.391239619216719</v>
       </c>
       <c r="C23">
-        <v>0.723988660184915</v>
+        <v>0.7237021977975644</v>
       </c>
       <c r="D23">
-        <v>0.02699656497126668</v>
+        <v>0.02677121719237618</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.526603229991252</v>
+        <v>3.519121054025476</v>
       </c>
       <c r="G23">
-        <v>2.789473204120227</v>
+        <v>0.926759240588666</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.858321743442772</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,33 +1306,36 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.542329485716294</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>5.541988928393778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.870411930633793</v>
+        <v>2.869941535770749</v>
       </c>
       <c r="C24">
-        <v>0.6217961143752575</v>
+        <v>0.6215868704561558</v>
       </c>
       <c r="D24">
-        <v>0.02533370983388394</v>
+        <v>0.02514200355744123</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.983560320362045</v>
+        <v>2.97726028500702</v>
       </c>
       <c r="G24">
-        <v>2.362850609073675</v>
+        <v>0.779794585282076</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.580107597562744</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,33 +1347,36 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.479844590305248</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>4.4796507781478</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.323879220069045</v>
+        <v>2.32359331176508</v>
       </c>
       <c r="C25">
-        <v>0.513584997507877</v>
+        <v>0.5134473961771562</v>
       </c>
       <c r="D25">
-        <v>0.02410421435793353</v>
+        <v>0.02394544855494019</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.439493931442826</v>
+        <v>2.434378345406529</v>
       </c>
       <c r="G25">
-        <v>1.936948229621663</v>
+        <v>0.6327366709620463</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.302714615899887</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.472885713489106</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>3.472788137073536</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_45/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,37 +409,43 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.930946345674073</v>
+        <v>3.491668697079433</v>
       </c>
       <c r="C2">
-        <v>0.4349935033998236</v>
+        <v>0.9242224581338121</v>
       </c>
       <c r="D2">
-        <v>0.02339016702936547</v>
+        <v>0.1108309993565655</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.059846230731324</v>
+        <v>2.414500341397101</v>
       </c>
       <c r="G2">
-        <v>0.5313388673768884</v>
+        <v>0.0007912962344692742</v>
       </c>
       <c r="H2">
-        <v>1.112257295322834</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4414954084763991</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -448,39 +454,45 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.803269780672608</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.519652639881599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.669078413396079</v>
+        <v>3.016267406092936</v>
       </c>
       <c r="C3">
-        <v>0.3822827358206666</v>
+        <v>0.7974398151588389</v>
       </c>
       <c r="D3">
-        <v>0.02316053791165373</v>
+        <v>0.09773185493843073</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.817651311296061</v>
+        <v>2.188246929598918</v>
       </c>
       <c r="G3">
-        <v>0.4657676171390932</v>
+        <v>0.0008004861843293866</v>
       </c>
       <c r="H3">
-        <v>0.9895742851188487</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3877770251428245</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -489,39 +501,45 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.378558839620041</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.381743457564852</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.509862735544232</v>
+        <v>2.728637888758385</v>
       </c>
       <c r="C4">
-        <v>0.3500611725373517</v>
+        <v>0.720598940712307</v>
       </c>
       <c r="D4">
-        <v>0.02307721311847644</v>
+        <v>0.08977475243272437</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.673563628980006</v>
+        <v>2.055889413380569</v>
       </c>
       <c r="G4">
-        <v>0.4267471769786937</v>
+        <v>0.0008062608306811047</v>
       </c>
       <c r="H4">
-        <v>0.9167975044005061</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3557169429926006</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -530,39 +548,45 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.128253912127732</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.30151570850883</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.445307325861336</v>
+        <v>2.612335948884152</v>
       </c>
       <c r="C5">
-        <v>0.3369552514240439</v>
+        <v>0.6894946579729151</v>
       </c>
       <c r="D5">
-        <v>0.02305588432896855</v>
+        <v>0.08655087546380713</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.61586276910208</v>
+        <v>2.003433066018999</v>
       </c>
       <c r="G5">
-        <v>0.4111172443778202</v>
+        <v>0.0008086493855178112</v>
       </c>
       <c r="H5">
-        <v>0.8877031847321604</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3428562132400259</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -571,39 +595,45 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.028413609082733</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.269826552359433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.434605741368784</v>
+        <v>2.593074527253407</v>
       </c>
       <c r="C6">
-        <v>0.3347801929635779</v>
+        <v>0.6843412473518811</v>
       </c>
       <c r="D6">
-        <v>0.02305305510953559</v>
+        <v>0.0860166045562849</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.606338971502765</v>
+        <v>1.994807469885529</v>
       </c>
       <c r="G6">
-        <v>0.4085371765730343</v>
+        <v>0.0008090481970187152</v>
       </c>
       <c r="H6">
-        <v>0.882903942952737</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3407322484634534</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -612,39 +642,45 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.011953347946701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.264622101554252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.508990884914141</v>
+        <v>2.727065923346856</v>
       </c>
       <c r="C7">
-        <v>0.3498843362507387</v>
+        <v>0.7201786656540605</v>
       </c>
       <c r="D7">
-        <v>0.02307687664580271</v>
+        <v>0.08973120194187345</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.672781522925462</v>
+        <v>2.055176187809593</v>
       </c>
       <c r="G7">
-        <v>0.4265353388264259</v>
+        <v>0.000806292897794689</v>
       </c>
       <c r="H7">
-        <v>0.9164029474137863</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3555427079023445</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -653,39 +689,45 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.126899249648844</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.301084414713628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.840284508404324</v>
+        <v>3.326760442663328</v>
       </c>
       <c r="C8">
-        <v>0.4167820699039737</v>
+        <v>0.8802717676544489</v>
       </c>
       <c r="D8">
-        <v>0.02329781190985614</v>
+        <v>0.1062947719107115</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.975285403778287</v>
+        <v>2.335018611758429</v>
       </c>
       <c r="G8">
-        <v>0.5084464592565467</v>
+        <v>0.0007944388948378776</v>
       </c>
       <c r="H8">
-        <v>1.069376588489931</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.422763877163618</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -694,39 +736,45 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.654346952956601</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.471105814474285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.505880950024675</v>
+        <v>4.544997163236417</v>
       </c>
       <c r="C9">
-        <v>0.5496554391289123</v>
+        <v>1.204411573175321</v>
       </c>
       <c r="D9">
-        <v>0.02428911082376928</v>
+        <v>0.1396053032201081</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.61271942611674</v>
+        <v>2.944475949105737</v>
       </c>
       <c r="G9">
-        <v>0.6810313791642102</v>
+        <v>0.0007721317153208937</v>
       </c>
       <c r="H9">
-        <v>1.393679578953254</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5633428045271387</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -735,39 +783,45 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.798240262648903</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1.845617982265409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.009968838057432</v>
+        <v>5.479172271387938</v>
       </c>
       <c r="C10">
-        <v>0.6491197827664337</v>
+        <v>1.452361074533655</v>
       </c>
       <c r="D10">
-        <v>0.02553093472683443</v>
+        <v>0.1648237732490685</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.120466719886196</v>
+        <v>3.442964664992701</v>
       </c>
       <c r="G10">
-        <v>0.818614243652803</v>
+        <v>0.0007561423254344168</v>
       </c>
       <c r="H10">
-        <v>1.653512229942109</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6742590789272072</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -776,39 +830,45 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.754110499527727</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.155067951232354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.243913442893131</v>
+        <v>5.916209309942644</v>
       </c>
       <c r="C11">
-        <v>0.6949511201094651</v>
+        <v>1.568248844587913</v>
       </c>
       <c r="D11">
-        <v>0.02625961342265626</v>
+        <v>0.1765220005840433</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.363531898496348</v>
+        <v>3.684402102381057</v>
       </c>
       <c r="G11">
-        <v>0.8845366624727404</v>
+        <v>0.0007489096775350479</v>
       </c>
       <c r="H11">
-        <v>1.778307397620097</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.7269873181853796</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -817,39 +877,45 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.23000892911719</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.30574894517126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.333292955034437</v>
+        <v>6.08379211223496</v>
       </c>
       <c r="C12">
-        <v>0.7124042590460817</v>
+        <v>1.61267298036887</v>
       </c>
       <c r="D12">
-        <v>0.02656499492573872</v>
+        <v>0.180990630707214</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.45768689264753</v>
+        <v>3.778300453464027</v>
       </c>
       <c r="G12">
-        <v>0.9100852533537704</v>
+        <v>0.0007461722877186716</v>
       </c>
       <c r="H12">
-        <v>1.826716135023077</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.7473417255059474</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -858,39 +924,45 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.418074239209673</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.364477279010785</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.314006269504546</v>
+        <v>6.047601196309984</v>
       </c>
       <c r="C13">
-        <v>0.7086408693159854</v>
+        <v>1.603079752795736</v>
       </c>
       <c r="D13">
-        <v>0.02649780338171226</v>
+        <v>0.1800263973010487</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.43730811365495</v>
+        <v>3.757961474912889</v>
       </c>
       <c r="G13">
-        <v>0.904554920787831</v>
+        <v>0.000746761847030375</v>
       </c>
       <c r="H13">
-        <v>1.81623546972375</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.7429397386808176</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -899,39 +971,45 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.377182883466247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.351750563957154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.251250174408085</v>
+        <v>5.929952432190476</v>
       </c>
       <c r="C14">
-        <v>0.6963849693435975</v>
+        <v>1.571892223864893</v>
       </c>
       <c r="D14">
-        <v>0.02628410730114794</v>
+        <v>0.1768888213460116</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.371233314612567</v>
+        <v>3.69207537223383</v>
       </c>
       <c r="G14">
-        <v>0.8866261359795544</v>
+        <v>0.0007486844695800296</v>
       </c>
       <c r="H14">
-        <v>1.782265598256799</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.7286537413089746</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -940,39 +1018,45 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.245310067957831</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.310545582112809</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.21291695988748</v>
+        <v>5.858172197298359</v>
       </c>
       <c r="C15">
-        <v>0.6888909858865588</v>
+        <v>1.552862362845531</v>
       </c>
       <c r="D15">
-        <v>0.02615725090437948</v>
+        <v>0.174972215553538</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.331048141691696</v>
+        <v>3.652051767569731</v>
       </c>
       <c r="G15">
-        <v>0.8757240127088579</v>
+        <v>0.0007498621776603501</v>
       </c>
       <c r="H15">
-        <v>1.761614880441499</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.7199555703633962</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -981,39 +1065,45 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.165626700806854</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.285531549651139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.994783542421317</v>
+        <v>5.450882557726061</v>
       </c>
       <c r="C16">
-        <v>0.6461375764613422</v>
+        <v>1.444857579739391</v>
       </c>
       <c r="D16">
-        <v>0.02548707695053665</v>
+        <v>0.1640643300886779</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.104855087247387</v>
+        <v>3.427511021971014</v>
       </c>
       <c r="G16">
-        <v>0.8143816517417548</v>
+        <v>0.0007566154568678728</v>
       </c>
       <c r="H16">
-        <v>1.645505609337107</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.6708638498595718</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1022,39 +1112,45 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.723987139072847</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.145439981597349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.862236710383797</v>
+        <v>5.204348887877586</v>
       </c>
       <c r="C17">
-        <v>0.6200697473577179</v>
+        <v>1.379455624073671</v>
       </c>
       <c r="D17">
-        <v>0.02512160358489623</v>
+        <v>0.1574347791769526</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.969429267131829</v>
+        <v>3.293760351016346</v>
       </c>
       <c r="G17">
-        <v>0.7776721791459664</v>
+        <v>0.0007607659252691757</v>
       </c>
       <c r="H17">
-        <v>1.576096233766691</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.6413697807665386</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1063,39 +1159,45 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.464760018689333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.062198342458785</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.786427215505739</v>
+        <v>5.06366203848529</v>
       </c>
       <c r="C18">
-        <v>0.6051304608792236</v>
+        <v>1.342122896244859</v>
       </c>
       <c r="D18">
-        <v>0.02492637655864982</v>
+        <v>0.1536425043917831</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.892647237027688</v>
+        <v>3.218186871983818</v>
       </c>
       <c r="G18">
-        <v>0.7568642799816985</v>
+        <v>0.0007631573266510845</v>
       </c>
       <c r="H18">
-        <v>1.53678020738019</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.6246152621676799</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1104,39 +1206,45 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.31937740942746</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.015236159752035</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.760829336285099</v>
+        <v>5.016209214457376</v>
       </c>
       <c r="C19">
-        <v>0.6000811448586489</v>
+        <v>1.329528928254661</v>
       </c>
       <c r="D19">
-        <v>0.02486269503878802</v>
+        <v>0.1523619145809931</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.866830982229231</v>
+        <v>3.192821836090644</v>
       </c>
       <c r="G19">
-        <v>0.7498688735645374</v>
+        <v>0.0007639678532696781</v>
       </c>
       <c r="H19">
-        <v>1.523567168761588</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.6189767886836819</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1145,39 +1253,45 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.270743008238938</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>1.999486116031065</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.8763013967353</v>
+        <v>5.23047528461916</v>
       </c>
       <c r="C20">
-        <v>0.6228389932588243</v>
+        <v>1.386387663426433</v>
       </c>
       <c r="D20">
-        <v>0.02515892047876633</v>
+        <v>0.1581383043333631</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.983728122182669</v>
+        <v>3.307855520153623</v>
       </c>
       <c r="G20">
-        <v>0.7815475636913902</v>
+        <v>0.0007603237001172399</v>
       </c>
       <c r="H20">
-        <v>1.583420894699159</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6444873635560526</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1186,39 +1300,45 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.491958400969779</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.070963089365435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.269660687752662</v>
+        <v>5.964449038476403</v>
       </c>
       <c r="C21">
-        <v>0.69998207129197</v>
+        <v>1.581037268443652</v>
       </c>
       <c r="D21">
-        <v>0.02634602033149847</v>
+        <v>0.177809296809869</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.390580363475237</v>
+        <v>3.711357480638924</v>
       </c>
       <c r="G21">
-        <v>0.8918754036359076</v>
+        <v>0.0007481197480193522</v>
       </c>
       <c r="H21">
-        <v>1.79221026004997</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7328388392790259</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1227,39 +1347,45 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.283812083140759</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.322601059635815</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.531411818946367</v>
+        <v>6.456508839434548</v>
       </c>
       <c r="C22">
-        <v>0.7509738219808071</v>
+        <v>1.711455237457699</v>
       </c>
       <c r="D22">
-        <v>0.02729761806740427</v>
+        <v>0.1908950189614131</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.669033487908422</v>
+        <v>3.98968549440761</v>
       </c>
       <c r="G22">
-        <v>0.9674615442816048</v>
+        <v>0.0007401496627091767</v>
       </c>
       <c r="H22">
-        <v>1.935511456494197</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7928752007378677</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1268,39 +1394,45 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.848605873966576</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.496930457205977</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.391239619216719</v>
+        <v>6.192625155750363</v>
       </c>
       <c r="C23">
-        <v>0.7237021977975644</v>
+        <v>1.641520005051234</v>
       </c>
       <c r="D23">
-        <v>0.02677121719237618</v>
+        <v>0.1838875893983385</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.519121054025476</v>
+        <v>3.839664059679137</v>
       </c>
       <c r="G23">
-        <v>0.926759240588666</v>
+        <v>0.0007444045625142258</v>
       </c>
       <c r="H23">
-        <v>1.858321743442772</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7606000711448075</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1309,39 +1441,45 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.541988928393778</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.402893397814069</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.869941535770749</v>
+        <v>5.218660300052818</v>
       </c>
       <c r="C24">
-        <v>0.6215868704561558</v>
+        <v>1.383252861485346</v>
       </c>
       <c r="D24">
-        <v>0.02514200355744123</v>
+        <v>0.1578201814433982</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.97726028500702</v>
+        <v>3.301479004349233</v>
       </c>
       <c r="G24">
-        <v>0.779794585282076</v>
+        <v>0.0007605236134094669</v>
       </c>
       <c r="H24">
-        <v>1.580107597562744</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.643077279593939</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1350,39 +1488,45 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.4796507781478</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.066997778870089</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.32359331176508</v>
+        <v>4.209634639998797</v>
       </c>
       <c r="C25">
-        <v>0.5134473961771562</v>
+        <v>1.115290677115354</v>
       </c>
       <c r="D25">
-        <v>0.02394544855494019</v>
+        <v>0.1304823394741419</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.434378345406529</v>
+        <v>2.771797090512507</v>
       </c>
       <c r="G25">
-        <v>0.6327366709620463</v>
+        <v>0.0007780824168932207</v>
       </c>
       <c r="H25">
-        <v>1.302714615899887</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.524156665527741</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,7 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.472788137073536</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1.739022200542479</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_45/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.491668697079433</v>
+        <v>0.9071237588532881</v>
       </c>
       <c r="C2">
-        <v>0.9242224581338121</v>
+        <v>0.1307780882593974</v>
       </c>
       <c r="D2">
-        <v>0.1108309993565655</v>
+        <v>0.06056335777882182</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.414500341397101</v>
+        <v>0.9502687827482248</v>
       </c>
       <c r="G2">
-        <v>0.0007912962344692742</v>
+        <v>0.8903924592744517</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.6253424605085343</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.7198661218501883</v>
       </c>
       <c r="J2">
-        <v>0.4414954084763991</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8530941570724906</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2278784098756006</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2241639165137954</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.519652639881599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.016267406092936</v>
+        <v>0.7871012400779023</v>
       </c>
       <c r="C3">
-        <v>0.7974398151588389</v>
+        <v>0.12325467258988</v>
       </c>
       <c r="D3">
-        <v>0.09773185493843073</v>
+        <v>0.05885621910705297</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.188246929598918</v>
+        <v>0.9028831065522169</v>
       </c>
       <c r="G3">
-        <v>0.0008004861843293866</v>
+        <v>0.8518456437145687</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.6146270809535537</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.708234538806245</v>
       </c>
       <c r="J3">
-        <v>0.3877770251428245</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.74132951881856</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2085219888162726</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1964879179081365</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.381743457564852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.728637888758385</v>
+        <v>0.7138193036726648</v>
       </c>
       <c r="C4">
-        <v>0.720598940712307</v>
+        <v>0.1186238598937237</v>
       </c>
       <c r="D4">
-        <v>0.08977475243272437</v>
+        <v>0.05779506661891176</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.055889413380569</v>
+        <v>0.8753302702784822</v>
       </c>
       <c r="G4">
-        <v>0.0008062608306811047</v>
+        <v>0.8297307045963436</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.608948524842134</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.7022087333622835</v>
       </c>
       <c r="J4">
-        <v>0.3557169429926006</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6729464386248338</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1969191373435564</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1796685695521099</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.30151570850883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.612335948884152</v>
+        <v>0.6840438547891949</v>
       </c>
       <c r="C5">
-        <v>0.6894946579729151</v>
+        <v>0.1167328003315973</v>
       </c>
       <c r="D5">
-        <v>0.08655087546380713</v>
+        <v>0.05735936462796687</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.003433066018999</v>
+        <v>0.8644686439124101</v>
       </c>
       <c r="G5">
-        <v>0.0008086493855178112</v>
+        <v>0.8210875972665406</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.6068512497383551</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.7000213820741266</v>
       </c>
       <c r="J5">
-        <v>0.3428562132400259</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6451254456491</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1922571800792312</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1728537740217497</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.269826552359433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.593074527253407</v>
+        <v>0.6791044967027915</v>
       </c>
       <c r="C6">
-        <v>0.6843412473518811</v>
+        <v>0.1164185210879012</v>
       </c>
       <c r="D6">
-        <v>0.0860166045562849</v>
+        <v>0.05728681862975193</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.994807469885529</v>
+        <v>0.8626866032517881</v>
       </c>
       <c r="G6">
-        <v>0.0008090481970187152</v>
+        <v>0.8196740879223938</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.6065158180241923</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.6996740229101306</v>
       </c>
       <c r="J6">
-        <v>0.3407322484634534</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6405081304701241</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1914869392655163</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1717244252338226</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.264622101554252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.727065923346856</v>
+        <v>0.7134174078027229</v>
       </c>
       <c r="C7">
-        <v>0.7201786656540605</v>
+        <v>0.1185983738590863</v>
       </c>
       <c r="D7">
-        <v>0.08973120194187345</v>
+        <v>0.05778920385906261</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.055176187809593</v>
+        <v>0.8751823305935815</v>
       </c>
       <c r="G7">
-        <v>0.000806292897794689</v>
+        <v>0.8296126746115817</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.6089193749590862</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.7021781639207916</v>
       </c>
       <c r="J7">
-        <v>0.3555427079023445</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6725710691302282</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1968560020542327</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1795765097579256</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.301084414713628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.326760442663328</v>
+        <v>0.865644348576609</v>
       </c>
       <c r="C8">
-        <v>0.8802717676544489</v>
+        <v>0.1281856960398216</v>
       </c>
       <c r="D8">
-        <v>0.1062947719107115</v>
+        <v>0.05997741564538472</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.335018611758429</v>
+        <v>0.9335968624158113</v>
       </c>
       <c r="G8">
-        <v>0.0007944388948378776</v>
+        <v>0.8767658210790472</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.6214548323538054</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.715616227150619</v>
       </c>
       <c r="J8">
-        <v>0.422763877163618</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8144984431433215</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2211429022939342</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2145823680516372</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.471105814474285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.544997163236417</v>
+        <v>1.168224715368666</v>
       </c>
       <c r="C9">
-        <v>1.204411573175321</v>
+        <v>0.1469500657448961</v>
       </c>
       <c r="D9">
-        <v>0.1396053032201081</v>
+        <v>0.06416682915000393</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.944475949105737</v>
+        <v>1.061415865639404</v>
       </c>
       <c r="G9">
-        <v>0.0007721317153208937</v>
+        <v>0.9825954875213796</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.653651715278059</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.7514207996465316</v>
       </c>
       <c r="J9">
-        <v>0.5633428045271387</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.095459337556008</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2712315502648295</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2848265792745579</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.845617982265409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.479172271387938</v>
+        <v>1.39420706067196</v>
       </c>
       <c r="C10">
-        <v>1.452361074533655</v>
+        <v>0.1607968308844647</v>
       </c>
       <c r="D10">
-        <v>0.1648237732490685</v>
+        <v>0.06718529142295182</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.442964664992701</v>
+        <v>1.164954051564592</v>
       </c>
       <c r="G10">
-        <v>0.0007561423254344168</v>
+        <v>1.070048138202807</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.6826478872534523</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.784379201614378</v>
       </c>
       <c r="J10">
-        <v>0.6742590789272072</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.304599563904645</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3098680848395787</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3377385831970301</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.155067951232354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.916209309942644</v>
+        <v>1.498100748451037</v>
       </c>
       <c r="C11">
-        <v>1.568248844587913</v>
+        <v>0.1671295806373223</v>
       </c>
       <c r="D11">
-        <v>0.1765220005840433</v>
+        <v>0.06854627713381944</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.684402102381057</v>
+        <v>1.214518361923766</v>
       </c>
       <c r="G11">
-        <v>0.0007489096775350479</v>
+        <v>1.11231345322274</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.6971675038634402</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.8010319351770789</v>
       </c>
       <c r="J11">
-        <v>0.7269873181853796</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.400601658820193</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.327924223934005</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3621721754809073</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.30574894517126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.08379211223496</v>
+        <v>1.537625673660557</v>
       </c>
       <c r="C12">
-        <v>1.61267298036887</v>
+        <v>0.169534335862167</v>
       </c>
       <c r="D12">
-        <v>0.180990630707214</v>
+        <v>0.0690599701466752</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.778300453464027</v>
+        <v>1.233674936008299</v>
       </c>
       <c r="G12">
-        <v>0.0007461722877186716</v>
+        <v>1.128709138734223</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.7028721287712614</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.8075960008818228</v>
       </c>
       <c r="J12">
-        <v>0.7473417255059474</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.4371032884427</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3348378819882214</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.3714839346566094</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.364477279010785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.047601196309984</v>
+        <v>1.529104723406704</v>
       </c>
       <c r="C13">
-        <v>1.603079752795736</v>
+        <v>0.169016100844118</v>
       </c>
       <c r="D13">
-        <v>0.1800263973010487</v>
+        <v>0.06894941091461249</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.757961474912889</v>
+        <v>1.229531425619555</v>
       </c>
       <c r="G13">
-        <v>0.000746761847030375</v>
+        <v>1.125160090300071</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.7016341017394438</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.8061705105516452</v>
       </c>
       <c r="J13">
-        <v>0.7429397386808176</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.429235042668182</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.333345393766237</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.3694757264570256</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.351750563957154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.929952432190476</v>
+        <v>1.501348674305632</v>
       </c>
       <c r="C14">
-        <v>1.571892223864893</v>
+        <v>0.1673272763687663</v>
       </c>
       <c r="D14">
-        <v>0.1768888213460116</v>
+        <v>0.06858857230236737</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.69207537223383</v>
+        <v>1.216086415600131</v>
       </c>
       <c r="G14">
-        <v>0.0007486844695800296</v>
+        <v>1.113654302406161</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.6976325992747121</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.8015666768944314</v>
       </c>
       <c r="J14">
-        <v>0.7286537413089746</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.403601567154737</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.3284914448920944</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.3629370292257832</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.310545582112809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.858172197298359</v>
+        <v>1.484371868436739</v>
       </c>
       <c r="C15">
-        <v>1.552862362845531</v>
+        <v>0.1662937495641188</v>
       </c>
       <c r="D15">
-        <v>0.174972215553538</v>
+        <v>0.06836733109365412</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.652051767569731</v>
+        <v>1.207902475109194</v>
       </c>
       <c r="G15">
-        <v>0.0007498621776603501</v>
+        <v>1.106658607044906</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.6952089112625259</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.7987809011058573</v>
       </c>
       <c r="J15">
-        <v>0.7199555703633962</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.387920294542823</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.3255284046554152</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.3589398265674291</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.285531549651139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.450882557726061</v>
+        <v>1.38744148977193</v>
       </c>
       <c r="C16">
-        <v>1.444857579739391</v>
+        <v>0.1603838025892088</v>
       </c>
       <c r="D16">
-        <v>0.1640643300886779</v>
+        <v>0.06709610875336836</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.427511021971014</v>
+        <v>1.161767280248952</v>
       </c>
       <c r="G16">
-        <v>0.0007566154568678728</v>
+        <v>1.06733877942186</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.6817270158270361</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.7833259256093967</v>
       </c>
       <c r="J16">
-        <v>0.6708638498595718</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.298344943457465</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.3086983340841982</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.336149693537898</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.145439981597349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.204348887877586</v>
+        <v>1.328275296738553</v>
       </c>
       <c r="C17">
-        <v>1.379455624073671</v>
+        <v>0.1567681391694435</v>
       </c>
       <c r="D17">
-        <v>0.1574347791769526</v>
+        <v>0.06631318900522132</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.293760351016346</v>
+        <v>1.134118854680167</v>
       </c>
       <c r="G17">
-        <v>0.0007607659252691757</v>
+        <v>1.043876362829664</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.6738071857707268</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.7742832077490291</v>
       </c>
       <c r="J17">
-        <v>0.6413697807665386</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.24363063024424</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2985015267797309</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.3222666308630124</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.062198342458785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.06366203848529</v>
+        <v>1.294345722216093</v>
       </c>
       <c r="C18">
-        <v>1.342122896244859</v>
+        <v>0.1546915667127848</v>
       </c>
       <c r="D18">
-        <v>0.1536425043917831</v>
+        <v>0.06586172843691429</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.218186871983818</v>
+        <v>1.118446016868944</v>
       </c>
       <c r="G18">
-        <v>0.0007631573266510845</v>
+        <v>1.030612908196531</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.66937602895716</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.7692370559678707</v>
       </c>
       <c r="J18">
-        <v>0.6246152621676799</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.212240124853082</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2926813312573699</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.3143152389537107</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.015236159752035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.016209214457376</v>
+        <v>1.282874399789648</v>
       </c>
       <c r="C19">
-        <v>1.329528928254661</v>
+        <v>0.153988947976984</v>
       </c>
       <c r="D19">
-        <v>0.1523619145809931</v>
+        <v>0.06570867315448226</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.192821836090644</v>
+        <v>1.11317796088278</v>
       </c>
       <c r="G19">
-        <v>0.0007639678532696781</v>
+        <v>1.02616090794632</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.6678965887076487</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.7675545686227494</v>
       </c>
       <c r="J19">
-        <v>0.6189767886836819</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.201624843359497</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2907181882461884</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.3116286315757009</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.999486116031065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.23047528461916</v>
+        <v>1.334562981720637</v>
       </c>
       <c r="C20">
-        <v>1.386387663426433</v>
+        <v>0.1571527031949813</v>
       </c>
       <c r="D20">
-        <v>0.1581383043333631</v>
+        <v>0.06639665032881226</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.307855520153623</v>
+        <v>1.137038060066985</v>
       </c>
       <c r="G20">
-        <v>0.0007603237001172399</v>
+        <v>1.046349781358117</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.6746373127946299</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.7752296452712599</v>
       </c>
       <c r="J20">
-        <v>0.6444873635560526</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.249446646734157</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2995823141051375</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3237409617222511</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.070963089365435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.964449038476403</v>
+        <v>1.509496128833092</v>
       </c>
       <c r="C21">
-        <v>1.581037268443652</v>
+        <v>0.1678231283838585</v>
       </c>
       <c r="D21">
-        <v>0.177809296809869</v>
+        <v>0.06869460447713038</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.711357480638924</v>
+        <v>1.220024741775376</v>
       </c>
       <c r="G21">
-        <v>0.0007481197480193522</v>
+        <v>1.117022944549745</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.698802209324171</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.8029117693160757</v>
       </c>
       <c r="J21">
-        <v>0.7328388392790259</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.411126533362193</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3299150398821951</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3648559355074781</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.322601059635815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.456508839434548</v>
+        <v>1.62490295822505</v>
       </c>
       <c r="C22">
-        <v>1.711455237457699</v>
+        <v>0.1748367778727555</v>
       </c>
       <c r="D22">
-        <v>0.1908950189614131</v>
+        <v>0.07018667836150172</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.98968549440761</v>
+        <v>1.276538251728994</v>
       </c>
       <c r="G22">
-        <v>0.0007401496627091767</v>
+        <v>1.165507080085746</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.7158061893621124</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.8225178125187256</v>
       </c>
       <c r="J22">
-        <v>0.7928752007378677</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.517667107713635</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3501870482429013</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3920761827656634</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.496930457205977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.192625155750363</v>
+        <v>1.563200574820854</v>
       </c>
       <c r="C23">
-        <v>1.641520005051234</v>
+        <v>0.1710891619739101</v>
       </c>
       <c r="D23">
-        <v>0.1838875893983385</v>
+        <v>0.0693912015017446</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.839664059679137</v>
+        <v>1.246155879992159</v>
       </c>
       <c r="G23">
-        <v>0.0007444045625142258</v>
+        <v>1.13940830639865</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.7066146884667575</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.8119083384052388</v>
       </c>
       <c r="J23">
-        <v>0.7606000711448075</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.460716160928655</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3393240130065465</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3775138094211101</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.402893397814069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.218660300052818</v>
+        <v>1.331720053810045</v>
       </c>
       <c r="C24">
-        <v>1.383252861485346</v>
+        <v>0.1569788353292978</v>
       </c>
       <c r="D24">
-        <v>0.1578201814433982</v>
+        <v>0.06635892167246027</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.301479004349233</v>
+        <v>1.135717596414665</v>
       </c>
       <c r="G24">
-        <v>0.0007605236134094669</v>
+        <v>1.045230849283897</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.6742616333175135</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.7748012869130605</v>
       </c>
       <c r="J24">
-        <v>0.643077279593939</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.246817023477206</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2990935596036906</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.323074323303274</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.066997778870089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.209634639998797</v>
+        <v>1.085815144671869</v>
       </c>
       <c r="C25">
-        <v>1.115290677115354</v>
+        <v>0.1418695735405322</v>
       </c>
       <c r="D25">
-        <v>0.1304823394741419</v>
+        <v>0.06304414103486877</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.771797090512507</v>
+        <v>1.025264533746579</v>
       </c>
       <c r="G25">
-        <v>0.0007780824168932207</v>
+        <v>0.9523816138895711</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.6440573096724904</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.7406347070509582</v>
       </c>
       <c r="J25">
-        <v>0.524156665527741</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.019059760781943</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.257384434369456</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2656200039888894</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.739022200542479</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_45/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9071237588532881</v>
+        <v>0.4775687422101953</v>
       </c>
       <c r="C2">
-        <v>0.1307780882593974</v>
+        <v>0.1281789982642039</v>
       </c>
       <c r="D2">
-        <v>0.06056335777882182</v>
+        <v>0.06245909031792962</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9502687827482248</v>
+        <v>1.334852579320426</v>
       </c>
       <c r="G2">
-        <v>0.8903924592744517</v>
+        <v>1.219765546245497</v>
       </c>
       <c r="H2">
-        <v>0.6253424605085343</v>
+        <v>1.172461250130837</v>
       </c>
       <c r="I2">
-        <v>0.7198661218501883</v>
+        <v>1.234641739171472</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8530941570724906</v>
+        <v>0.2901266050507445</v>
       </c>
       <c r="L2">
-        <v>0.2278784098756006</v>
+        <v>0.2986121799919061</v>
       </c>
       <c r="M2">
-        <v>0.2241639165137954</v>
+        <v>0.176813460862391</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7871012400779023</v>
+        <v>0.4455515744904233</v>
       </c>
       <c r="C3">
-        <v>0.12325467258988</v>
+        <v>0.1254283203567823</v>
       </c>
       <c r="D3">
-        <v>0.05885621910705297</v>
+        <v>0.06159383311435462</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9028831065522169</v>
+        <v>1.329561281832071</v>
       </c>
       <c r="G3">
-        <v>0.8518456437145687</v>
+        <v>1.21606804412572</v>
       </c>
       <c r="H3">
-        <v>0.6146270809535537</v>
+        <v>1.175306587185418</v>
       </c>
       <c r="I3">
-        <v>0.708234538806245</v>
+        <v>1.237561429762366</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.74132951881856</v>
+        <v>0.2579919681258502</v>
       </c>
       <c r="L3">
-        <v>0.2085219888162726</v>
+        <v>0.2951446198367407</v>
       </c>
       <c r="M3">
-        <v>0.1964879179081365</v>
+        <v>0.1701167158920462</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7138193036726648</v>
+        <v>0.4260965005388471</v>
       </c>
       <c r="C4">
-        <v>0.1186238598937237</v>
+        <v>0.1237085438182461</v>
       </c>
       <c r="D4">
-        <v>0.05779506661891176</v>
+        <v>0.06105191816130784</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8753302702784822</v>
+        <v>1.326991855540186</v>
       </c>
       <c r="G4">
-        <v>0.8297307045963436</v>
+        <v>1.214440438525884</v>
       </c>
       <c r="H4">
-        <v>0.608948524842134</v>
+        <v>1.177514056302286</v>
       </c>
       <c r="I4">
-        <v>0.7022087333622835</v>
+        <v>1.239879424251129</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6729464386248338</v>
+        <v>0.2383123340322726</v>
       </c>
       <c r="L4">
-        <v>0.1969191373435564</v>
+        <v>0.2931621517200327</v>
       </c>
       <c r="M4">
-        <v>0.1796685695521099</v>
+        <v>0.166094313475007</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6840438547891949</v>
+        <v>0.418219991795894</v>
       </c>
       <c r="C5">
-        <v>0.1167328003315973</v>
+        <v>0.1229999544659819</v>
       </c>
       <c r="D5">
-        <v>0.05735936462796687</v>
+        <v>0.06082841788668603</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8644686439124101</v>
+        <v>1.326115638340987</v>
       </c>
       <c r="G5">
-        <v>0.8210875972665406</v>
+        <v>1.213938685205918</v>
       </c>
       <c r="H5">
-        <v>0.6068512497383551</v>
+        <v>1.178529455405297</v>
       </c>
       <c r="I5">
-        <v>0.7000213820741266</v>
+        <v>1.240956122254858</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6451254456491</v>
+        <v>0.2303058547777397</v>
       </c>
       <c r="L5">
-        <v>0.1922571800792312</v>
+        <v>0.2923912029010793</v>
       </c>
       <c r="M5">
-        <v>0.1728537740217497</v>
+        <v>0.1644777226173417</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6791044967027915</v>
+        <v>0.4169152312571498</v>
       </c>
       <c r="C6">
-        <v>0.1164185210879012</v>
+        <v>0.122881824406555</v>
       </c>
       <c r="D6">
-        <v>0.05728681862975193</v>
+        <v>0.06079114516800743</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8626866032517881</v>
+        <v>1.325980461519848</v>
       </c>
       <c r="G6">
-        <v>0.8196740879223938</v>
+        <v>1.213865121387272</v>
       </c>
       <c r="H6">
-        <v>0.6065158180241923</v>
+        <v>1.178705059761228</v>
       </c>
       <c r="I6">
-        <v>0.6996740229101306</v>
+        <v>1.241142885667159</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6405081304701241</v>
+        <v>0.2289771859990424</v>
       </c>
       <c r="L6">
-        <v>0.1914869392655163</v>
+        <v>0.2922654190439999</v>
       </c>
       <c r="M6">
-        <v>0.1717244252338226</v>
+        <v>0.1642106546388646</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7134174078027229</v>
+        <v>0.4259900657663422</v>
       </c>
       <c r="C7">
-        <v>0.1185983738590863</v>
+        <v>0.1236990189920704</v>
       </c>
       <c r="D7">
-        <v>0.05778920385906261</v>
+        <v>0.06104891473635021</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8751823305935815</v>
+        <v>1.326979346839074</v>
       </c>
       <c r="G7">
-        <v>0.8296126746115817</v>
+        <v>1.214433017892034</v>
       </c>
       <c r="H7">
-        <v>0.6089193749590862</v>
+        <v>1.177527281230311</v>
       </c>
       <c r="I7">
-        <v>0.7021781639207916</v>
+        <v>1.239893410116807</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6725710691302282</v>
+        <v>0.2382043023293647</v>
       </c>
       <c r="L7">
-        <v>0.1968560020542327</v>
+        <v>0.2931516048649101</v>
       </c>
       <c r="M7">
-        <v>0.1795765097579256</v>
+        <v>0.166072420065273</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.865644348576609</v>
+        <v>0.4664871922792315</v>
       </c>
       <c r="C8">
-        <v>0.1281856960398216</v>
+        <v>0.1272369610685118</v>
       </c>
       <c r="D8">
-        <v>0.05997741564538472</v>
+        <v>0.06216296495965423</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9335968624158113</v>
+        <v>1.332887109460984</v>
       </c>
       <c r="G8">
-        <v>0.8767658210790472</v>
+        <v>1.218357197777181</v>
       </c>
       <c r="H8">
-        <v>0.6214548323538054</v>
+        <v>1.173346796948863</v>
       </c>
       <c r="I8">
-        <v>0.715616227150619</v>
+        <v>1.23553942650247</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8144984431433215</v>
+        <v>0.2790361124053788</v>
       </c>
       <c r="L8">
-        <v>0.2211429022939342</v>
+        <v>0.2973861621529466</v>
       </c>
       <c r="M8">
-        <v>0.2145823680516372</v>
+        <v>0.1744859105113932</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.168224715368666</v>
+        <v>0.5475044958765807</v>
       </c>
       <c r="C9">
-        <v>0.1469500657448961</v>
+        <v>0.1339307594602772</v>
       </c>
       <c r="D9">
-        <v>0.06416682915000393</v>
+        <v>0.06426277243043188</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.061415865639404</v>
+        <v>1.349866067617612</v>
       </c>
       <c r="G9">
-        <v>0.9825954875213796</v>
+        <v>1.231158161411827</v>
       </c>
       <c r="H9">
-        <v>0.653651715278059</v>
+        <v>1.168800217903907</v>
       </c>
       <c r="I9">
-        <v>0.7514207996465316</v>
+        <v>1.231169854930982</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.095459337556008</v>
+        <v>0.3595055935455775</v>
       </c>
       <c r="L9">
-        <v>0.2712315502648295</v>
+        <v>0.3068520300560778</v>
       </c>
       <c r="M9">
-        <v>0.2848265792745579</v>
+        <v>0.1916916625222598</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.39420706067196</v>
+        <v>0.6079942087771997</v>
       </c>
       <c r="C10">
-        <v>0.1607968308844647</v>
+        <v>0.1387012080048891</v>
       </c>
       <c r="D10">
-        <v>0.06718529142295182</v>
+        <v>0.06575338408697462</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.164954051564592</v>
+        <v>1.365635835616814</v>
       </c>
       <c r="G10">
-        <v>1.070048138202807</v>
+        <v>1.243687131038456</v>
       </c>
       <c r="H10">
-        <v>0.6826478872534523</v>
+        <v>1.167684422935992</v>
       </c>
       <c r="I10">
-        <v>0.784379201614378</v>
+        <v>1.230503028891121</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.304599563904645</v>
+        <v>0.4188654404324836</v>
       </c>
       <c r="L10">
-        <v>0.3098680848395787</v>
+        <v>0.3145140653432605</v>
       </c>
       <c r="M10">
-        <v>0.3377385831970301</v>
+        <v>0.2047617031171285</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.498100748451037</v>
+        <v>0.6357205505734669</v>
       </c>
       <c r="C11">
-        <v>0.1671295806373223</v>
+        <v>0.1408396901096864</v>
       </c>
       <c r="D11">
-        <v>0.06854627713381944</v>
+        <v>0.06642011157572369</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.214518361923766</v>
+        <v>1.373527195104259</v>
       </c>
       <c r="G11">
-        <v>1.11231345322274</v>
+        <v>1.250067912893613</v>
       </c>
       <c r="H11">
-        <v>0.6971675038634402</v>
+        <v>1.167659667602564</v>
       </c>
       <c r="I11">
-        <v>0.8010319351770789</v>
+        <v>1.230752547519081</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.400601658820193</v>
+        <v>0.4459212121983285</v>
       </c>
       <c r="L11">
-        <v>0.327924223934005</v>
+        <v>0.3181532341211408</v>
       </c>
       <c r="M11">
-        <v>0.3621721754809073</v>
+        <v>0.2108004325172885</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.537625673660557</v>
+        <v>0.6462495895284235</v>
       </c>
       <c r="C12">
-        <v>0.169534335862167</v>
+        <v>0.1416449465348251</v>
       </c>
       <c r="D12">
-        <v>0.0690599701466752</v>
+        <v>0.06667094165928944</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.233674936008299</v>
+        <v>1.376618713252242</v>
       </c>
       <c r="G12">
-        <v>1.128709138734223</v>
+        <v>1.252582277087427</v>
       </c>
       <c r="H12">
-        <v>0.7028721287712614</v>
+        <v>1.167719688781077</v>
       </c>
       <c r="I12">
-        <v>0.8075960008818228</v>
+        <v>1.230926559498528</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.4371032884427</v>
+        <v>0.4561739292064146</v>
       </c>
       <c r="L12">
-        <v>0.3348378819882214</v>
+        <v>0.3195533567199647</v>
       </c>
       <c r="M12">
-        <v>0.3714839346566094</v>
+        <v>0.213100469734627</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.529104723406704</v>
+        <v>0.6439806594189008</v>
       </c>
       <c r="C13">
-        <v>0.169016100844118</v>
+        <v>0.1414717219856243</v>
       </c>
       <c r="D13">
-        <v>0.06894941091461249</v>
+        <v>0.06661699426526013</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.229531425619555</v>
+        <v>1.375948307628022</v>
       </c>
       <c r="G13">
-        <v>1.125160090300071</v>
+        <v>1.252036398629585</v>
       </c>
       <c r="H13">
-        <v>0.7016341017394438</v>
+        <v>1.167703676303361</v>
       </c>
       <c r="I13">
-        <v>0.8061705105516452</v>
+        <v>1.230885545641868</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.429235042668182</v>
+        <v>0.4539655038516912</v>
       </c>
       <c r="L13">
-        <v>0.333345393766237</v>
+        <v>0.3192508354444215</v>
       </c>
       <c r="M13">
-        <v>0.3694757264570256</v>
+        <v>0.212604525356312</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.501348674305632</v>
+        <v>0.6365861885965103</v>
       </c>
       <c r="C14">
-        <v>0.1673272763687663</v>
+        <v>0.1409060299993712</v>
       </c>
       <c r="D14">
-        <v>0.06858857230236737</v>
+        <v>0.06644078055522584</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.216086415600131</v>
+        <v>1.373779467023965</v>
       </c>
       <c r="G14">
-        <v>1.113654302406161</v>
+        <v>1.250272804315173</v>
       </c>
       <c r="H14">
-        <v>0.6976325992747121</v>
+        <v>1.167663214987073</v>
       </c>
       <c r="I14">
-        <v>0.8015666768944314</v>
+        <v>1.230765269659358</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.403601567154737</v>
+        <v>0.4467645650923089</v>
       </c>
       <c r="L14">
-        <v>0.3284914448920944</v>
+        <v>0.3182679814499352</v>
       </c>
       <c r="M14">
-        <v>0.3629370292257832</v>
+        <v>0.2109893918771775</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.484371868436739</v>
+        <v>0.6320607139223569</v>
       </c>
       <c r="C15">
-        <v>0.1662937495641188</v>
+        <v>0.1405589362284729</v>
       </c>
       <c r="D15">
-        <v>0.06836733109365412</v>
+        <v>0.0663326299782554</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.207902475109194</v>
+        <v>1.37246443449277</v>
       </c>
       <c r="G15">
-        <v>1.106658607044906</v>
+        <v>1.249205331364877</v>
       </c>
       <c r="H15">
-        <v>0.6952089112625259</v>
+        <v>1.167647467594094</v>
       </c>
       <c r="I15">
-        <v>0.7987809011058573</v>
+        <v>1.230701954318462</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.387920294542823</v>
+        <v>0.4423547220622766</v>
       </c>
       <c r="L15">
-        <v>0.3255284046554152</v>
+        <v>0.317668824885331</v>
       </c>
       <c r="M15">
-        <v>0.3589398265674291</v>
+        <v>0.2100018056630901</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.38744148977193</v>
+        <v>0.6061864024103158</v>
       </c>
       <c r="C16">
-        <v>0.1603838025892088</v>
+        <v>0.1385608174633575</v>
       </c>
       <c r="D16">
-        <v>0.06709610875336836</v>
+        <v>0.06570958229565349</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.161767280248952</v>
+        <v>1.365134560334795</v>
       </c>
       <c r="G16">
-        <v>1.06733877942186</v>
+        <v>1.243283852534944</v>
       </c>
       <c r="H16">
-        <v>0.6817270158270361</v>
+        <v>1.1676957535024</v>
       </c>
       <c r="I16">
-        <v>0.7833259256093967</v>
+        <v>1.230497849287993</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.298344943457465</v>
+        <v>0.4170983171837577</v>
       </c>
       <c r="L16">
-        <v>0.3086983340841982</v>
+        <v>0.3142793251365532</v>
       </c>
       <c r="M16">
-        <v>0.336149693537898</v>
+        <v>0.2043689240006969</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.328275296738553</v>
+        <v>0.5903666512420784</v>
       </c>
       <c r="C17">
-        <v>0.1567681391694435</v>
+        <v>0.1373269425141501</v>
       </c>
       <c r="D17">
-        <v>0.06631318900522132</v>
+        <v>0.06532444496960466</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.134118854680167</v>
+        <v>1.360821746354716</v>
       </c>
       <c r="G17">
-        <v>1.043876362829664</v>
+        <v>1.23982580601681</v>
       </c>
       <c r="H17">
-        <v>0.6738071857707268</v>
+        <v>1.167849014045871</v>
       </c>
       <c r="I17">
-        <v>0.7742832077490291</v>
+        <v>1.230514255509725</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.24363063024424</v>
+        <v>0.4016176152115918</v>
       </c>
       <c r="L17">
-        <v>0.2985015267797309</v>
+        <v>0.3122393004649098</v>
       </c>
       <c r="M17">
-        <v>0.3222666308630124</v>
+        <v>0.2009371176171086</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.294345722216093</v>
+        <v>0.5812872709008445</v>
       </c>
       <c r="C18">
-        <v>0.1546915667127848</v>
+        <v>0.1366142737710447</v>
       </c>
       <c r="D18">
-        <v>0.06586172843691429</v>
+        <v>0.06510185566857274</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.118446016868944</v>
+        <v>1.358408672615155</v>
       </c>
       <c r="G18">
-        <v>1.030612908196531</v>
+        <v>1.237900947591882</v>
       </c>
       <c r="H18">
-        <v>0.66937602895716</v>
+        <v>1.167982613277388</v>
       </c>
       <c r="I18">
-        <v>0.7692370559678707</v>
+        <v>1.230575728403039</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.212240124853082</v>
+        <v>0.3927185006942011</v>
       </c>
       <c r="L18">
-        <v>0.2926813312573699</v>
+        <v>0.3110803993708089</v>
       </c>
       <c r="M18">
-        <v>0.3143152389537107</v>
+        <v>0.1989720017455454</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.282874399789648</v>
+        <v>0.5782165487687791</v>
       </c>
       <c r="C19">
-        <v>0.153988947976984</v>
+        <v>0.1363724649694262</v>
       </c>
       <c r="D19">
-        <v>0.06570867315448226</v>
+        <v>0.06502630760032702</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.11317796088278</v>
+        <v>1.357603246630347</v>
       </c>
       <c r="G19">
-        <v>1.02616090794632</v>
+        <v>1.237260231986383</v>
       </c>
       <c r="H19">
-        <v>0.6678965887076487</v>
+        <v>1.168035654441979</v>
       </c>
       <c r="I19">
-        <v>0.7675545686227494</v>
+        <v>1.230605478656464</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.201624843359497</v>
+        <v>0.3897062769445938</v>
       </c>
       <c r="L19">
-        <v>0.2907181882461884</v>
+        <v>0.310690501619618</v>
       </c>
       <c r="M19">
-        <v>0.3116286315757009</v>
+        <v>0.1983081558988715</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.334562981720637</v>
+        <v>0.5920486526269144</v>
       </c>
       <c r="C20">
-        <v>0.1571527031949813</v>
+        <v>0.1374585986196308</v>
       </c>
       <c r="D20">
-        <v>0.06639665032881226</v>
+        <v>0.0653655541656093</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.137038060066985</v>
+        <v>1.361273862046801</v>
       </c>
       <c r="G20">
-        <v>1.046349781358117</v>
+        <v>1.240187283990608</v>
       </c>
       <c r="H20">
-        <v>0.6746373127946299</v>
+        <v>1.16782799576626</v>
       </c>
       <c r="I20">
-        <v>0.7752296452712599</v>
+        <v>1.230507123283594</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.249446646734157</v>
+        <v>0.4032650495070698</v>
       </c>
       <c r="L20">
-        <v>0.2995823141051375</v>
+        <v>0.3124549676364978</v>
       </c>
       <c r="M20">
-        <v>0.3237409617222511</v>
+        <v>0.2013015323978777</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.509496128833092</v>
+        <v>0.6387573218651141</v>
       </c>
       <c r="C21">
-        <v>0.1678231283838585</v>
+        <v>0.1410723106199043</v>
       </c>
       <c r="D21">
-        <v>0.06869460447713038</v>
+        <v>0.06649258353450449</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.220024741775376</v>
+        <v>1.374413706094884</v>
       </c>
       <c r="G21">
-        <v>1.117022944549745</v>
+        <v>1.250788151246965</v>
       </c>
       <c r="H21">
-        <v>0.698802209324171</v>
+        <v>1.167673216353919</v>
       </c>
       <c r="I21">
-        <v>0.8029117693160757</v>
+        <v>1.230798439163038</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.411126533362193</v>
+        <v>0.4488794600071628</v>
       </c>
       <c r="L21">
-        <v>0.3299150398821951</v>
+        <v>0.3185560714994011</v>
       </c>
       <c r="M21">
-        <v>0.3648559355074781</v>
+        <v>0.2114634354221678</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.62490295822505</v>
+        <v>0.6694569140685189</v>
       </c>
       <c r="C22">
-        <v>0.1748367778727555</v>
+        <v>0.143407618781751</v>
       </c>
       <c r="D22">
-        <v>0.07018667836150172</v>
+        <v>0.06721956789591133</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.276538251728994</v>
+        <v>1.383603084263342</v>
       </c>
       <c r="G22">
-        <v>1.165507080085746</v>
+        <v>1.258288296719343</v>
       </c>
       <c r="H22">
-        <v>0.7158061893621124</v>
+        <v>1.167976533459424</v>
       </c>
       <c r="I22">
-        <v>0.8225178125187256</v>
+        <v>1.231452372771855</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.517667107713635</v>
+        <v>0.4787334332327191</v>
       </c>
       <c r="L22">
-        <v>0.3501870482429013</v>
+        <v>0.3226719874497803</v>
       </c>
       <c r="M22">
-        <v>0.3920761827656634</v>
+        <v>0.2181823175732944</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.563200574820854</v>
+        <v>0.653056292236414</v>
       </c>
       <c r="C23">
-        <v>0.1710891619739101</v>
+        <v>0.1421636399580848</v>
       </c>
       <c r="D23">
-        <v>0.0693912015017446</v>
+        <v>0.0668324443783419</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.246155879992159</v>
+        <v>1.37864346889873</v>
       </c>
       <c r="G23">
-        <v>1.13940830639865</v>
+        <v>1.254232958818065</v>
       </c>
       <c r="H23">
-        <v>0.7066146884667575</v>
+        <v>1.167777649186846</v>
       </c>
       <c r="I23">
-        <v>0.8119083384052388</v>
+        <v>1.231060934094067</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.460716160928655</v>
+        <v>0.4627960296848528</v>
       </c>
       <c r="L23">
-        <v>0.3393240130065465</v>
+        <v>0.3204635049012126</v>
       </c>
       <c r="M23">
-        <v>0.3775138094211101</v>
+        <v>0.2145892617998015</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.331720053810045</v>
+        <v>0.5912881711623754</v>
       </c>
       <c r="C24">
-        <v>0.1569788353292978</v>
+        <v>0.1373990871669548</v>
       </c>
       <c r="D24">
-        <v>0.06635892167246027</v>
+        <v>0.06534697233723108</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.135717596414665</v>
+        <v>1.36106925364588</v>
       </c>
       <c r="G24">
-        <v>1.045230849283897</v>
+        <v>1.240023662883004</v>
       </c>
       <c r="H24">
-        <v>0.6742616333175135</v>
+        <v>1.16783735643078</v>
       </c>
       <c r="I24">
-        <v>0.7748012869130605</v>
+        <v>1.230510185656506</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.246817023477206</v>
+        <v>0.4025202414921409</v>
       </c>
       <c r="L24">
-        <v>0.2990935596036906</v>
+        <v>0.3123574210954558</v>
       </c>
       <c r="M24">
-        <v>0.323074323303274</v>
+        <v>0.2011367559388049</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.085815144671869</v>
+        <v>0.5254167146489124</v>
       </c>
       <c r="C25">
-        <v>0.1418695735405322</v>
+        <v>0.1321459053769232</v>
       </c>
       <c r="D25">
-        <v>0.06304414103486877</v>
+        <v>0.06370384328375067</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.025264533746579</v>
+        <v>1.34469462530879</v>
       </c>
       <c r="G25">
-        <v>0.9523816138895711</v>
+        <v>1.22714736890353</v>
       </c>
       <c r="H25">
-        <v>0.6440573096724904</v>
+        <v>1.169639431245855</v>
       </c>
       <c r="I25">
-        <v>0.7406347070509582</v>
+        <v>1.231905435560869</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.019059760781943</v>
+        <v>0.3376942299806842</v>
       </c>
       <c r="L25">
-        <v>0.257384434369456</v>
+        <v>0.3041669614807176</v>
       </c>
       <c r="M25">
-        <v>0.2656200039888894</v>
+        <v>0.1869615762871106</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_45/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4775687422101953</v>
+        <v>0.9071237588532881</v>
       </c>
       <c r="C2">
-        <v>0.1281789982642039</v>
+        <v>0.1307780882592766</v>
       </c>
       <c r="D2">
-        <v>0.06245909031792962</v>
+        <v>0.06056335777875077</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.334852579320426</v>
+        <v>0.9502687827482106</v>
       </c>
       <c r="G2">
-        <v>1.219765546245497</v>
+        <v>0.8903924592744801</v>
       </c>
       <c r="H2">
-        <v>1.172461250130837</v>
+        <v>0.6253424605086337</v>
       </c>
       <c r="I2">
-        <v>1.234641739171472</v>
+        <v>0.7198661218501954</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2901266050507445</v>
+        <v>0.8530941570724906</v>
       </c>
       <c r="L2">
-        <v>0.2986121799919061</v>
+        <v>0.227878409875629</v>
       </c>
       <c r="M2">
-        <v>0.176813460862391</v>
+        <v>0.2241639165137919</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4455515744904233</v>
+        <v>0.7871012400776181</v>
       </c>
       <c r="C3">
-        <v>0.1254283203567823</v>
+        <v>0.1232546725897379</v>
       </c>
       <c r="D3">
-        <v>0.06159383311435462</v>
+        <v>0.05885621910715955</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.329561281832071</v>
+        <v>0.9028831065522098</v>
       </c>
       <c r="G3">
-        <v>1.21606804412572</v>
+        <v>0.8518456437146114</v>
       </c>
       <c r="H3">
-        <v>1.175306587185418</v>
+        <v>0.6146270809535537</v>
       </c>
       <c r="I3">
-        <v>1.237561429762366</v>
+        <v>0.7082345388062379</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2579919681258502</v>
+        <v>0.7413295188185884</v>
       </c>
       <c r="L3">
-        <v>0.2951446198367407</v>
+        <v>0.2085219888162442</v>
       </c>
       <c r="M3">
-        <v>0.1701167158920462</v>
+        <v>0.1964879179081365</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4260965005388471</v>
+        <v>0.7138193036726364</v>
       </c>
       <c r="C4">
-        <v>0.1237085438182461</v>
+        <v>0.1186238598937308</v>
       </c>
       <c r="D4">
-        <v>0.06105191816130784</v>
+        <v>0.05779506661901834</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.326991855540186</v>
+        <v>0.8753302702784751</v>
       </c>
       <c r="G4">
-        <v>1.214440438525884</v>
+        <v>0.8297307045963009</v>
       </c>
       <c r="H4">
-        <v>1.177514056302286</v>
+        <v>0.6089485248421198</v>
       </c>
       <c r="I4">
-        <v>1.239879424251129</v>
+        <v>0.7022087333622622</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2383123340322726</v>
+        <v>0.6729464386248765</v>
       </c>
       <c r="L4">
-        <v>0.2931621517200327</v>
+        <v>0.1969191373434853</v>
       </c>
       <c r="M4">
-        <v>0.166094313475007</v>
+        <v>0.1796685695521276</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.418219991795894</v>
+        <v>0.6840438547890528</v>
       </c>
       <c r="C5">
-        <v>0.1229999544659819</v>
+        <v>0.1167328003319525</v>
       </c>
       <c r="D5">
-        <v>0.06082841788668603</v>
+        <v>0.05735936462814095</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.326115638340987</v>
+        <v>0.8644686439123959</v>
       </c>
       <c r="G5">
-        <v>1.213938685205918</v>
+        <v>0.8210875972664979</v>
       </c>
       <c r="H5">
-        <v>1.178529455405297</v>
+        <v>0.6068512497383267</v>
       </c>
       <c r="I5">
-        <v>1.240956122254858</v>
+        <v>0.7000213820741195</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2303058547777397</v>
+        <v>0.6451254456491995</v>
       </c>
       <c r="L5">
-        <v>0.2923912029010793</v>
+        <v>0.192257180079288</v>
       </c>
       <c r="M5">
-        <v>0.1644777226173417</v>
+        <v>0.1728537740217462</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4169152312571498</v>
+        <v>0.6791044967025357</v>
       </c>
       <c r="C6">
-        <v>0.122881824406555</v>
+        <v>0.1164185210880149</v>
       </c>
       <c r="D6">
-        <v>0.06079114516800743</v>
+        <v>0.05728681862981944</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.325980461519848</v>
+        <v>0.862686603251781</v>
       </c>
       <c r="G6">
-        <v>1.213865121387272</v>
+        <v>0.8196740879224222</v>
       </c>
       <c r="H6">
-        <v>1.178705059761228</v>
+        <v>0.6065158180241923</v>
       </c>
       <c r="I6">
-        <v>1.241142885667159</v>
+        <v>0.6996740229101306</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2289771859990424</v>
+        <v>0.6405081304700957</v>
       </c>
       <c r="L6">
-        <v>0.2922654190439999</v>
+        <v>0.1914869392655802</v>
       </c>
       <c r="M6">
-        <v>0.1642106546388646</v>
+        <v>0.1717244252338155</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4259900657663422</v>
+        <v>0.7134174078026945</v>
       </c>
       <c r="C7">
-        <v>0.1236990189920704</v>
+        <v>0.1185983738592853</v>
       </c>
       <c r="D7">
-        <v>0.06104891473635021</v>
+        <v>0.05778920385910524</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.326979346839074</v>
+        <v>0.8751823305936028</v>
       </c>
       <c r="G7">
-        <v>1.214433017892034</v>
+        <v>0.8296126746116244</v>
       </c>
       <c r="H7">
-        <v>1.177527281230311</v>
+        <v>0.6089193749591146</v>
       </c>
       <c r="I7">
-        <v>1.239893410116807</v>
+        <v>0.70217816392082</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2382043023293647</v>
+        <v>0.6725710691302851</v>
       </c>
       <c r="L7">
-        <v>0.2931516048649101</v>
+        <v>0.1968560020541332</v>
       </c>
       <c r="M7">
-        <v>0.166072420065273</v>
+        <v>0.1795765097579398</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4664871922792315</v>
+        <v>0.8656443485766374</v>
       </c>
       <c r="C8">
-        <v>0.1272369610685118</v>
+        <v>0.1281856960394734</v>
       </c>
       <c r="D8">
-        <v>0.06216296495965423</v>
+        <v>0.05997741564574355</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.332887109460984</v>
+        <v>0.9335968624158255</v>
       </c>
       <c r="G8">
-        <v>1.218357197777181</v>
+        <v>0.8767658210790756</v>
       </c>
       <c r="H8">
-        <v>1.173346796948863</v>
+        <v>0.6214548323538054</v>
       </c>
       <c r="I8">
-        <v>1.23553942650247</v>
+        <v>0.715616227150619</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2790361124053788</v>
+        <v>0.8144984431434068</v>
       </c>
       <c r="L8">
-        <v>0.2973861621529466</v>
+        <v>0.2211429022939626</v>
       </c>
       <c r="M8">
-        <v>0.1744859105113932</v>
+        <v>0.2145823680516372</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5475044958765807</v>
+        <v>1.168224715368808</v>
       </c>
       <c r="C9">
-        <v>0.1339307594602772</v>
+        <v>0.1469500657452514</v>
       </c>
       <c r="D9">
-        <v>0.06426277243043188</v>
+        <v>0.06416682914981919</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.349866067617612</v>
+        <v>1.061415865639404</v>
       </c>
       <c r="G9">
-        <v>1.231158161411827</v>
+        <v>0.9825954875213796</v>
       </c>
       <c r="H9">
-        <v>1.168800217903907</v>
+        <v>0.6536517152780306</v>
       </c>
       <c r="I9">
-        <v>1.231169854930982</v>
+        <v>0.7514207996465387</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3595055935455775</v>
+        <v>1.095459337555866</v>
       </c>
       <c r="L9">
-        <v>0.3068520300560778</v>
+        <v>0.2712315502648153</v>
       </c>
       <c r="M9">
-        <v>0.1916916625222598</v>
+        <v>0.2848265792745721</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6079942087771997</v>
+        <v>1.39420706067196</v>
       </c>
       <c r="C10">
-        <v>0.1387012080048891</v>
+        <v>0.1607968308843226</v>
       </c>
       <c r="D10">
-        <v>0.06575338408697462</v>
+        <v>0.06718529142295182</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.365635835616814</v>
+        <v>1.164954051564578</v>
       </c>
       <c r="G10">
-        <v>1.243687131038456</v>
+        <v>1.070048138202779</v>
       </c>
       <c r="H10">
-        <v>1.167684422935992</v>
+        <v>0.6826478872533102</v>
       </c>
       <c r="I10">
-        <v>1.230503028891121</v>
+        <v>0.7843792016143709</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4188654404324836</v>
+        <v>1.30459956390456</v>
       </c>
       <c r="L10">
-        <v>0.3145140653432605</v>
+        <v>0.3098680848395361</v>
       </c>
       <c r="M10">
-        <v>0.2047617031171285</v>
+        <v>0.3377385831970088</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6357205505734669</v>
+        <v>1.498100748451094</v>
       </c>
       <c r="C11">
-        <v>0.1408396901096864</v>
+        <v>0.1671295806378481</v>
       </c>
       <c r="D11">
-        <v>0.06642011157572369</v>
+        <v>0.06854627713376971</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.373527195104259</v>
+        <v>1.214518361923766</v>
       </c>
       <c r="G11">
-        <v>1.250067912893613</v>
+        <v>1.112313453222782</v>
       </c>
       <c r="H11">
-        <v>1.167659667602564</v>
+        <v>0.6971675038634544</v>
       </c>
       <c r="I11">
-        <v>1.230752547519081</v>
+        <v>0.8010319351771074</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4459212121983285</v>
+        <v>1.40060165882025</v>
       </c>
       <c r="L11">
-        <v>0.3181532341211408</v>
+        <v>0.327924223934005</v>
       </c>
       <c r="M11">
-        <v>0.2108004325172885</v>
+        <v>0.3621721754808931</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6462495895284235</v>
+        <v>1.537625673660614</v>
       </c>
       <c r="C12">
-        <v>0.1416449465348251</v>
+        <v>0.1695343358621528</v>
       </c>
       <c r="D12">
-        <v>0.06667094165928944</v>
+        <v>0.0690599701466752</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.376618713252242</v>
+        <v>1.233674936008299</v>
       </c>
       <c r="G12">
-        <v>1.252582277087427</v>
+        <v>1.128709138734195</v>
       </c>
       <c r="H12">
-        <v>1.167719688781077</v>
+        <v>0.7028721287712472</v>
       </c>
       <c r="I12">
-        <v>1.230926559498528</v>
+        <v>0.8075960008818228</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4561739292064146</v>
+        <v>1.437103288442643</v>
       </c>
       <c r="L12">
-        <v>0.3195533567199647</v>
+        <v>0.3348378819882498</v>
       </c>
       <c r="M12">
-        <v>0.213100469734627</v>
+        <v>0.3714839346566094</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6439806594189008</v>
+        <v>1.529104723406675</v>
       </c>
       <c r="C13">
-        <v>0.1414717219856243</v>
+        <v>0.169016100843848</v>
       </c>
       <c r="D13">
-        <v>0.06661699426526013</v>
+        <v>0.06894941091460538</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.375948307628022</v>
+        <v>1.229531425619541</v>
       </c>
       <c r="G13">
-        <v>1.252036398629585</v>
+        <v>1.125160090300056</v>
       </c>
       <c r="H13">
-        <v>1.167703676303361</v>
+        <v>0.7016341017393586</v>
       </c>
       <c r="I13">
-        <v>1.230885545641868</v>
+        <v>0.8061705105516594</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4539655038516912</v>
+        <v>1.429235042668125</v>
       </c>
       <c r="L13">
-        <v>0.3192508354444215</v>
+        <v>0.3333453937662512</v>
       </c>
       <c r="M13">
-        <v>0.212604525356312</v>
+        <v>0.3694757264570256</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6365861885965103</v>
+        <v>1.50134867430566</v>
       </c>
       <c r="C14">
-        <v>0.1409060299993712</v>
+        <v>0.1673272763687663</v>
       </c>
       <c r="D14">
-        <v>0.06644078055522584</v>
+        <v>0.06858857230236737</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.373779467023965</v>
+        <v>1.216086415600131</v>
       </c>
       <c r="G14">
-        <v>1.250272804315173</v>
+        <v>1.113654302406161</v>
       </c>
       <c r="H14">
-        <v>1.167663214987073</v>
+        <v>0.6976325992746979</v>
       </c>
       <c r="I14">
-        <v>1.230765269659358</v>
+        <v>0.8015666768944172</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4467645650923089</v>
+        <v>1.403601567154709</v>
       </c>
       <c r="L14">
-        <v>0.3182679814499352</v>
+        <v>0.3284914448921654</v>
       </c>
       <c r="M14">
-        <v>0.2109893918771775</v>
+        <v>0.3629370292257974</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6320607139223569</v>
+        <v>1.484371868436796</v>
       </c>
       <c r="C15">
-        <v>0.1405589362284729</v>
+        <v>0.1662937495642183</v>
       </c>
       <c r="D15">
-        <v>0.0663326299782554</v>
+        <v>0.06836733109352622</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.37246443449277</v>
+        <v>1.207902475109222</v>
       </c>
       <c r="G15">
-        <v>1.249205331364877</v>
+        <v>1.106658607044849</v>
       </c>
       <c r="H15">
-        <v>1.167647467594094</v>
+        <v>0.6952089112624265</v>
       </c>
       <c r="I15">
-        <v>1.230701954318462</v>
+        <v>0.7987809011058573</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4423547220622766</v>
+        <v>1.387920294542738</v>
       </c>
       <c r="L15">
-        <v>0.317668824885331</v>
+        <v>0.3255284046554436</v>
       </c>
       <c r="M15">
-        <v>0.2100018056630901</v>
+        <v>0.358939826567422</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6061864024103158</v>
+        <v>1.387441489771902</v>
       </c>
       <c r="C16">
-        <v>0.1385608174633575</v>
+        <v>0.1603838025893509</v>
       </c>
       <c r="D16">
-        <v>0.06570958229565349</v>
+        <v>0.0670961087534252</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.365134560334795</v>
+        <v>1.161767280248938</v>
       </c>
       <c r="G16">
-        <v>1.243283852534944</v>
+        <v>1.067338779421831</v>
       </c>
       <c r="H16">
-        <v>1.1676957535024</v>
+        <v>0.6817270158270503</v>
       </c>
       <c r="I16">
-        <v>1.230497849287993</v>
+        <v>0.7833259256093967</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4170983171837577</v>
+        <v>1.298344943457437</v>
       </c>
       <c r="L16">
-        <v>0.3142793251365532</v>
+        <v>0.3086983340841556</v>
       </c>
       <c r="M16">
-        <v>0.2043689240006969</v>
+        <v>0.3361496935378838</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5903666512420784</v>
+        <v>1.328275296738639</v>
       </c>
       <c r="C17">
-        <v>0.1373269425141501</v>
+        <v>0.1567681391694293</v>
       </c>
       <c r="D17">
-        <v>0.06532444496960466</v>
+        <v>0.06631318900511474</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.360821746354716</v>
+        <v>1.134118854680196</v>
       </c>
       <c r="G17">
-        <v>1.23982580601681</v>
+        <v>1.04387636282965</v>
       </c>
       <c r="H17">
-        <v>1.167849014045871</v>
+        <v>0.6738071857707411</v>
       </c>
       <c r="I17">
-        <v>1.230514255509725</v>
+        <v>0.7742832077490363</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4016176152115918</v>
+        <v>1.243630630244297</v>
       </c>
       <c r="L17">
-        <v>0.3122393004649098</v>
+        <v>0.2985015267797024</v>
       </c>
       <c r="M17">
-        <v>0.2009371176171086</v>
+        <v>0.3222666308630266</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5812872709008445</v>
+        <v>1.294345722216264</v>
       </c>
       <c r="C18">
-        <v>0.1366142737710447</v>
+        <v>0.1546915667130122</v>
       </c>
       <c r="D18">
-        <v>0.06510185566857274</v>
+        <v>0.06586172843691429</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.358408672615155</v>
+        <v>1.118446016868958</v>
       </c>
       <c r="G18">
-        <v>1.237900947591882</v>
+        <v>1.030612908196602</v>
       </c>
       <c r="H18">
-        <v>1.167982613277388</v>
+        <v>0.6693760289571458</v>
       </c>
       <c r="I18">
-        <v>1.230575728403039</v>
+        <v>0.7692370559678849</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3927185006942011</v>
+        <v>1.212240124853224</v>
       </c>
       <c r="L18">
-        <v>0.3110803993708089</v>
+        <v>0.2926813312573415</v>
       </c>
       <c r="M18">
-        <v>0.1989720017455454</v>
+        <v>0.3143152389537107</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5782165487687791</v>
+        <v>1.282874399789677</v>
       </c>
       <c r="C19">
-        <v>0.1363724649694262</v>
+        <v>0.1539889479769556</v>
       </c>
       <c r="D19">
-        <v>0.06502630760032702</v>
+        <v>0.0657086731546741</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.357603246630347</v>
+        <v>1.11317796088278</v>
       </c>
       <c r="G19">
-        <v>1.237260231986383</v>
+        <v>1.026160907946362</v>
       </c>
       <c r="H19">
-        <v>1.168035654441979</v>
+        <v>0.6678965887076487</v>
       </c>
       <c r="I19">
-        <v>1.230605478656464</v>
+        <v>0.7675545686227352</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3897062769445938</v>
+        <v>1.201624843359497</v>
       </c>
       <c r="L19">
-        <v>0.310690501619618</v>
+        <v>0.2907181882462027</v>
       </c>
       <c r="M19">
-        <v>0.1983081558988715</v>
+        <v>0.311628631575708</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5920486526269144</v>
+        <v>1.334562981720524</v>
       </c>
       <c r="C20">
-        <v>0.1374585986196308</v>
+        <v>0.1571527031949813</v>
       </c>
       <c r="D20">
-        <v>0.0653655541656093</v>
+        <v>0.06639665032880515</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.361273862046801</v>
+        <v>1.137038060066971</v>
       </c>
       <c r="G20">
-        <v>1.240187283990608</v>
+        <v>1.046349781358131</v>
       </c>
       <c r="H20">
-        <v>1.16782799576626</v>
+        <v>0.6746373127945162</v>
       </c>
       <c r="I20">
-        <v>1.230507123283594</v>
+        <v>0.7752296452712457</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4032650495070698</v>
+        <v>1.249446646734185</v>
       </c>
       <c r="L20">
-        <v>0.3124549676364978</v>
+        <v>0.2995823141051801</v>
       </c>
       <c r="M20">
-        <v>0.2013015323978777</v>
+        <v>0.3237409617222511</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6387573218651141</v>
+        <v>1.509496128833064</v>
       </c>
       <c r="C21">
-        <v>0.1410723106199043</v>
+        <v>0.1678231283838585</v>
       </c>
       <c r="D21">
-        <v>0.06649258353450449</v>
+        <v>0.06869460447690301</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.374413706094884</v>
+        <v>1.220024741775376</v>
       </c>
       <c r="G21">
-        <v>1.250788151246965</v>
+        <v>1.117022944549817</v>
       </c>
       <c r="H21">
-        <v>1.167673216353919</v>
+        <v>0.6988022093241284</v>
       </c>
       <c r="I21">
-        <v>1.230798439163038</v>
+        <v>0.8029117693160472</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4488794600071628</v>
+        <v>1.411126533362136</v>
       </c>
       <c r="L21">
-        <v>0.3185560714994011</v>
+        <v>0.3299150398820814</v>
       </c>
       <c r="M21">
-        <v>0.2114634354221678</v>
+        <v>0.3648559355074781</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6694569140685189</v>
+        <v>1.624902958225135</v>
       </c>
       <c r="C22">
-        <v>0.143407618781751</v>
+        <v>0.1748367778724855</v>
       </c>
       <c r="D22">
-        <v>0.06721956789591133</v>
+        <v>0.07018667836161541</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.383603084263342</v>
+        <v>1.276538251729008</v>
       </c>
       <c r="G22">
-        <v>1.258288296719343</v>
+        <v>1.165507080085774</v>
       </c>
       <c r="H22">
-        <v>1.167976533459424</v>
+        <v>0.7158061893620129</v>
       </c>
       <c r="I22">
-        <v>1.231452372771855</v>
+        <v>0.8225178125187256</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4787334332327191</v>
+        <v>1.517667107713663</v>
       </c>
       <c r="L22">
-        <v>0.3226719874497803</v>
+        <v>0.3501870482429581</v>
       </c>
       <c r="M22">
-        <v>0.2181823175732944</v>
+        <v>0.3920761827656705</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.653056292236414</v>
+        <v>1.563200574820911</v>
       </c>
       <c r="C23">
-        <v>0.1421636399580848</v>
+        <v>0.1710891619738959</v>
       </c>
       <c r="D23">
-        <v>0.0668324443783419</v>
+        <v>0.06939120150154565</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.37864346889873</v>
+        <v>1.246155879992159</v>
       </c>
       <c r="G23">
-        <v>1.254232958818065</v>
+        <v>1.139408306398693</v>
       </c>
       <c r="H23">
-        <v>1.167777649186846</v>
+        <v>0.7066146884666722</v>
       </c>
       <c r="I23">
-        <v>1.231060934094067</v>
+        <v>0.8119083384052317</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4627960296848528</v>
+        <v>1.460716160928712</v>
       </c>
       <c r="L23">
-        <v>0.3204635049012126</v>
+        <v>0.3393240130065465</v>
       </c>
       <c r="M23">
-        <v>0.2145892617998015</v>
+        <v>0.3775138094211172</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5912881711623754</v>
+        <v>1.331720053810187</v>
       </c>
       <c r="C24">
-        <v>0.1373990871669548</v>
+        <v>0.1569788353291699</v>
       </c>
       <c r="D24">
-        <v>0.06534697233723108</v>
+        <v>0.06635892167256685</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.36106925364588</v>
+        <v>1.135717596414665</v>
       </c>
       <c r="G24">
-        <v>1.240023662883004</v>
+        <v>1.045230849283882</v>
       </c>
       <c r="H24">
-        <v>1.16783735643078</v>
+        <v>0.6742616333176414</v>
       </c>
       <c r="I24">
-        <v>1.230510185656506</v>
+        <v>0.7748012869130676</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4025202414921409</v>
+        <v>1.246817023477234</v>
       </c>
       <c r="L24">
-        <v>0.3123574210954558</v>
+        <v>0.2990935596036621</v>
       </c>
       <c r="M24">
-        <v>0.2011367559388049</v>
+        <v>0.3230743233032669</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5254167146489124</v>
+        <v>1.085815144671983</v>
       </c>
       <c r="C25">
-        <v>0.1321459053769232</v>
+        <v>0.1418695735402622</v>
       </c>
       <c r="D25">
-        <v>0.06370384328375067</v>
+        <v>0.06304414103468758</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.34469462530879</v>
+        <v>1.025264533746579</v>
       </c>
       <c r="G25">
-        <v>1.22714736890353</v>
+        <v>0.9523816138895143</v>
       </c>
       <c r="H25">
-        <v>1.169639431245855</v>
+        <v>0.644057309672462</v>
       </c>
       <c r="I25">
-        <v>1.231905435560869</v>
+        <v>0.740634707050944</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3376942299806842</v>
+        <v>1.019059760781829</v>
       </c>
       <c r="L25">
-        <v>0.3041669614807176</v>
+        <v>0.257384434369385</v>
       </c>
       <c r="M25">
-        <v>0.1869615762871106</v>
+        <v>0.2656200039888859</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_45/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9071237588532881</v>
+        <v>3.458644809480006</v>
       </c>
       <c r="C2">
-        <v>0.1307780882592766</v>
+        <v>1.010735880341201</v>
       </c>
       <c r="D2">
-        <v>0.06056335777875077</v>
+        <v>0.4944111381014693</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9502687827482106</v>
+        <v>0.5850427887960237</v>
       </c>
       <c r="G2">
-        <v>0.8903924592744801</v>
+        <v>0.2117258568184326</v>
       </c>
       <c r="H2">
-        <v>0.6253424605086337</v>
+        <v>0.001256229744964754</v>
       </c>
       <c r="I2">
-        <v>0.7198661218501954</v>
+        <v>0.002790283130902793</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2058179522684185</v>
       </c>
       <c r="K2">
-        <v>0.8530941570724906</v>
+        <v>0.1269129800502569</v>
       </c>
       <c r="L2">
-        <v>0.227878409875629</v>
+        <v>0.5293176010522131</v>
       </c>
       <c r="M2">
-        <v>0.2241639165137919</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +468,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.8293627754048458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7871012400776181</v>
+        <v>3.016986733431736</v>
       </c>
       <c r="C3">
-        <v>0.1232546725897379</v>
+        <v>0.8894791820290209</v>
       </c>
       <c r="D3">
-        <v>0.05885621910715955</v>
+        <v>0.4399879828436326</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9028831065522098</v>
+        <v>0.5512410725175982</v>
       </c>
       <c r="G3">
-        <v>0.8518456437146114</v>
+        <v>0.2028466879874316</v>
       </c>
       <c r="H3">
-        <v>0.6146270809535537</v>
+        <v>0.0004344509566525101</v>
       </c>
       <c r="I3">
-        <v>0.7082345388062379</v>
+        <v>0.001735290421926994</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2066115185651896</v>
       </c>
       <c r="K3">
-        <v>0.7413295188185884</v>
+        <v>0.1379568198631937</v>
       </c>
       <c r="L3">
-        <v>0.2085219888162442</v>
+        <v>0.4708756288252403</v>
       </c>
       <c r="M3">
-        <v>0.1964879179081365</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +521,52 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.8118938678049545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7138193036726364</v>
+        <v>2.74523745360392</v>
       </c>
       <c r="C4">
-        <v>0.1186238598937308</v>
+        <v>0.8154175512584914</v>
       </c>
       <c r="D4">
-        <v>0.05779506661901834</v>
+        <v>0.4066511857093928</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8753302702784751</v>
+        <v>0.5310197799844971</v>
       </c>
       <c r="G4">
-        <v>0.8297307045963009</v>
+        <v>0.1978329949246458</v>
       </c>
       <c r="H4">
-        <v>0.6089485248421198</v>
+        <v>0.0001332486261711452</v>
       </c>
       <c r="I4">
-        <v>0.7022087333622622</v>
+        <v>0.001244933156650418</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2073977094366768</v>
       </c>
       <c r="K4">
-        <v>0.6729464386248765</v>
+        <v>0.145141991552912</v>
       </c>
       <c r="L4">
-        <v>0.1969191373434853</v>
+        <v>0.4349671696723334</v>
       </c>
       <c r="M4">
-        <v>0.1796685695521276</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +574,52 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.8027149775212621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6840438547890528</v>
+        <v>2.634320263838958</v>
       </c>
       <c r="C5">
-        <v>0.1167328003319525</v>
+        <v>0.7866802247026214</v>
       </c>
       <c r="D5">
-        <v>0.05735936462814095</v>
+        <v>0.3932650950375063</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8644686439123959</v>
+        <v>0.5224301373883051</v>
       </c>
       <c r="G5">
-        <v>0.8210875972664979</v>
+        <v>0.1955590834430367</v>
       </c>
       <c r="H5">
-        <v>0.6068512497383267</v>
+        <v>5.8676173948502E-05</v>
       </c>
       <c r="I5">
-        <v>0.7000213820741195</v>
+        <v>0.001142003416845228</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2076116800820458</v>
       </c>
       <c r="K5">
-        <v>0.6451254456491995</v>
+        <v>0.1480582911856492</v>
       </c>
       <c r="L5">
-        <v>0.192257180079288</v>
+        <v>0.4203153793256575</v>
       </c>
       <c r="M5">
-        <v>0.1728537740217462</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +627,52 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.7982603587160497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6791044967025357</v>
+        <v>2.615866372275775</v>
       </c>
       <c r="C6">
-        <v>0.1164185210880149</v>
+        <v>0.7835733809830288</v>
       </c>
       <c r="D6">
-        <v>0.05728681862981944</v>
+        <v>0.3912671170809006</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.862686603251781</v>
+        <v>0.5204306578833098</v>
       </c>
       <c r="G6">
-        <v>0.8196740879224222</v>
+        <v>0.1947793920539596</v>
       </c>
       <c r="H6">
-        <v>0.6065158180241923</v>
+        <v>4.900690172693345E-05</v>
       </c>
       <c r="I6">
-        <v>0.6996740229101306</v>
+        <v>0.001207899831230819</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2074333111649338</v>
       </c>
       <c r="K6">
-        <v>0.6405081304700957</v>
+        <v>0.1484158011123538</v>
       </c>
       <c r="L6">
-        <v>0.1914869392655802</v>
+        <v>0.417872249527008</v>
       </c>
       <c r="M6">
-        <v>0.1717244252338155</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +680,52 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.7962200741785637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7134174078026945</v>
+        <v>2.743669629623469</v>
       </c>
       <c r="C7">
-        <v>0.1185983738592853</v>
+        <v>0.8195742846161806</v>
       </c>
       <c r="D7">
-        <v>0.05778920385910524</v>
+        <v>0.4070831415147325</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8751823305936028</v>
+        <v>0.5293182472284457</v>
       </c>
       <c r="G7">
-        <v>0.8296126746116244</v>
+        <v>0.1966873922760044</v>
       </c>
       <c r="H7">
-        <v>0.6089193749591146</v>
+        <v>0.0001314680506188104</v>
       </c>
       <c r="I7">
-        <v>0.70217816392082</v>
+        <v>0.001449519508875952</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2068055901446613</v>
       </c>
       <c r="K7">
-        <v>0.6725710691302851</v>
+        <v>0.1448222056466886</v>
       </c>
       <c r="L7">
-        <v>0.1968560020541332</v>
+        <v>0.4347442843353804</v>
       </c>
       <c r="M7">
-        <v>0.1795765097579398</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +733,52 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.7990450805304619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8656443485766374</v>
+        <v>3.306373786279607</v>
       </c>
       <c r="C8">
-        <v>0.1281856960394734</v>
+        <v>0.9749128840945502</v>
       </c>
       <c r="D8">
-        <v>0.05997741564574355</v>
+        <v>0.4764427314272268</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9335968624158255</v>
+        <v>0.5711771670275354</v>
       </c>
       <c r="G8">
-        <v>0.8767658210790756</v>
+        <v>0.2070980494235357</v>
       </c>
       <c r="H8">
-        <v>0.6214548323538054</v>
+        <v>0.000927053778864817</v>
       </c>
       <c r="I8">
-        <v>0.715616227150619</v>
+        <v>0.002638540526296751</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2052466910012569</v>
       </c>
       <c r="K8">
-        <v>0.8144984431434068</v>
+        <v>0.130178550781781</v>
       </c>
       <c r="L8">
-        <v>0.2211429022939626</v>
+        <v>0.5091369947310795</v>
       </c>
       <c r="M8">
-        <v>0.2145823680516372</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +786,52 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.8182513593197314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.168224715368808</v>
+        <v>4.406119812919485</v>
       </c>
       <c r="C9">
-        <v>0.1469500657452514</v>
+        <v>1.274814647131166</v>
       </c>
       <c r="D9">
-        <v>0.06416682914981919</v>
+        <v>0.6121660471452515</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.061415865639404</v>
+        <v>0.6607384071846596</v>
       </c>
       <c r="G9">
-        <v>0.9825954875213796</v>
+        <v>0.2333070651282583</v>
       </c>
       <c r="H9">
-        <v>0.6536517152780306</v>
+        <v>0.004238067107327326</v>
       </c>
       <c r="I9">
-        <v>0.7514207996465387</v>
+        <v>0.006041180327129858</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2057595728348574</v>
       </c>
       <c r="K9">
-        <v>1.095459337555866</v>
+        <v>0.1054670028769706</v>
       </c>
       <c r="L9">
-        <v>0.2712315502648153</v>
+        <v>0.6550994538598616</v>
       </c>
       <c r="M9">
-        <v>0.2848265792745721</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +839,52 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.8756117506146239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.39420706067196</v>
+        <v>5.212311155641714</v>
       </c>
       <c r="C10">
-        <v>0.1607968308843226</v>
+        <v>1.497168880810875</v>
       </c>
       <c r="D10">
-        <v>0.06718529142295182</v>
+        <v>0.6959047327499377</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.164954051564578</v>
+        <v>0.7149786936334408</v>
       </c>
       <c r="G10">
-        <v>1.070048138202779</v>
+        <v>0.2499099391408919</v>
       </c>
       <c r="H10">
-        <v>0.6826478872533102</v>
+        <v>0.007812179053540369</v>
       </c>
       <c r="I10">
-        <v>0.7843792016143709</v>
+        <v>0.009613769824541762</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2051554457815286</v>
       </c>
       <c r="K10">
-        <v>1.30459956390456</v>
+        <v>0.08883466916118543</v>
       </c>
       <c r="L10">
-        <v>0.3098680848395361</v>
+        <v>0.7292162009933492</v>
       </c>
       <c r="M10">
-        <v>0.3377385831970088</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +892,52 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.9100340891421297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.498100748451094</v>
+        <v>5.574589618984078</v>
       </c>
       <c r="C11">
-        <v>0.1671295806378481</v>
+        <v>1.579586918988696</v>
       </c>
       <c r="D11">
-        <v>0.06854627713376971</v>
+        <v>0.593177653449743</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.214518361923766</v>
+        <v>0.6190258577543304</v>
       </c>
       <c r="G11">
-        <v>1.112313453222782</v>
+        <v>0.2153403699567562</v>
       </c>
       <c r="H11">
-        <v>0.6971675038634544</v>
+        <v>0.02586634042207336</v>
       </c>
       <c r="I11">
-        <v>0.8010319351771074</v>
+        <v>0.0112724781054423</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1838677602674821</v>
       </c>
       <c r="K11">
-        <v>1.40060165882025</v>
+        <v>0.07708286738768111</v>
       </c>
       <c r="L11">
-        <v>0.327924223934005</v>
+        <v>0.5027574091893001</v>
       </c>
       <c r="M11">
-        <v>0.3621721754808931</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +945,52 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.7923397877497109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.537625673660614</v>
+        <v>5.710139747024414</v>
       </c>
       <c r="C12">
-        <v>0.1695343358621528</v>
+        <v>1.593944580971879</v>
       </c>
       <c r="D12">
-        <v>0.0690599701466752</v>
+        <v>0.495994970366155</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.233674936008299</v>
+        <v>0.5343109498711485</v>
       </c>
       <c r="G12">
-        <v>1.128709138734195</v>
+        <v>0.1859196001036381</v>
       </c>
       <c r="H12">
-        <v>0.7028721287712472</v>
+        <v>0.06380095177977552</v>
       </c>
       <c r="I12">
-        <v>0.8075960008818228</v>
+        <v>0.01153565776837961</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1675019839802161</v>
       </c>
       <c r="K12">
-        <v>1.437103288442643</v>
+        <v>0.07258246019523798</v>
       </c>
       <c r="L12">
-        <v>0.3348378819882498</v>
+        <v>0.3369854944678252</v>
       </c>
       <c r="M12">
-        <v>0.3714839346566094</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +998,52 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.6957439644456684</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.529104723406675</v>
+        <v>5.677632462951124</v>
       </c>
       <c r="C13">
-        <v>0.169016100843848</v>
+        <v>1.563866767567617</v>
       </c>
       <c r="D13">
-        <v>0.06894941091460538</v>
+        <v>0.3989456134221427</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.229531425619541</v>
+        <v>0.4510744502150743</v>
       </c>
       <c r="G13">
-        <v>1.125160090300056</v>
+        <v>0.1569504394350574</v>
       </c>
       <c r="H13">
-        <v>0.7016341017393586</v>
+        <v>0.1185688051472056</v>
       </c>
       <c r="I13">
-        <v>0.8061705105516594</v>
+        <v>0.01101316800526675</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1529805458629667</v>
       </c>
       <c r="K13">
-        <v>1.429235042668125</v>
+        <v>0.07262500600635291</v>
       </c>
       <c r="L13">
-        <v>0.3333453937662512</v>
+        <v>0.2086686228985855</v>
       </c>
       <c r="M13">
-        <v>0.3694757264570256</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1051,52 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.6038750931272858</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.50134867430566</v>
+        <v>5.578701949377319</v>
       </c>
       <c r="C14">
-        <v>0.1673272763687663</v>
+        <v>1.524201797662101</v>
       </c>
       <c r="D14">
-        <v>0.06858857230236737</v>
+        <v>0.3329136860785979</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.216086415600131</v>
+        <v>0.3943862819322206</v>
       </c>
       <c r="G14">
-        <v>1.113654302406161</v>
+        <v>0.1370430702807539</v>
       </c>
       <c r="H14">
-        <v>0.6976325992746979</v>
+        <v>0.1671721477755739</v>
       </c>
       <c r="I14">
-        <v>0.8015666768944172</v>
+        <v>0.01038284891964469</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1436851595700332</v>
       </c>
       <c r="K14">
-        <v>1.403601567154709</v>
+        <v>0.07486785033875609</v>
       </c>
       <c r="L14">
-        <v>0.3284914448921654</v>
+        <v>0.1418343842099645</v>
       </c>
       <c r="M14">
-        <v>0.3629370292257974</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1104,52 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.5421321564084138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.484371868436796</v>
+        <v>5.51872355402412</v>
       </c>
       <c r="C15">
-        <v>0.1662937495642183</v>
+        <v>1.507085495685203</v>
       </c>
       <c r="D15">
-        <v>0.06836733109352622</v>
+        <v>0.3161210652145456</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.207902475109222</v>
+        <v>0.3799001808757438</v>
       </c>
       <c r="G15">
-        <v>1.106658607044849</v>
+        <v>0.1318147315431162</v>
       </c>
       <c r="H15">
-        <v>0.6952089112624265</v>
+        <v>0.1793927132342361</v>
       </c>
       <c r="I15">
-        <v>0.7987809011058573</v>
+        <v>0.0101645203193037</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1415838768555986</v>
       </c>
       <c r="K15">
-        <v>1.387920294542738</v>
+        <v>0.07619066675662411</v>
       </c>
       <c r="L15">
-        <v>0.3255284046554436</v>
+        <v>0.1283651886188082</v>
       </c>
       <c r="M15">
-        <v>0.358939826567422</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1157,52 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.5266089881541092</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.387441489771902</v>
+        <v>5.177309798965439</v>
       </c>
       <c r="C16">
-        <v>0.1603838025893509</v>
+        <v>1.420537858703199</v>
       </c>
       <c r="D16">
-        <v>0.0670961087534252</v>
+        <v>0.3029188472604574</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.161767280248938</v>
+        <v>0.3740705922874525</v>
       </c>
       <c r="G16">
-        <v>1.067338779421831</v>
+        <v>0.1300044858146663</v>
       </c>
       <c r="H16">
-        <v>0.6817270158270503</v>
+        <v>0.1653953474074399</v>
       </c>
       <c r="I16">
-        <v>0.7833259256093967</v>
+        <v>0.00876600012393336</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1443277447750759</v>
       </c>
       <c r="K16">
-        <v>1.298344943457437</v>
+        <v>0.08242338842760732</v>
       </c>
       <c r="L16">
-        <v>0.3086983340841556</v>
+        <v>0.1266758046544929</v>
       </c>
       <c r="M16">
-        <v>0.3361496935378838</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1210,52 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.52831651567341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.328275296738639</v>
+        <v>4.968632380649581</v>
       </c>
       <c r="C17">
-        <v>0.1567681391694293</v>
+        <v>1.375545477278251</v>
       </c>
       <c r="D17">
-        <v>0.06631318900511474</v>
+        <v>0.3267000940836056</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.134118854680196</v>
+        <v>0.3989577053595212</v>
       </c>
       <c r="G17">
-        <v>1.04387636282965</v>
+        <v>0.1390178920058958</v>
       </c>
       <c r="H17">
-        <v>0.6738071857707411</v>
+        <v>0.1270331558232272</v>
       </c>
       <c r="I17">
-        <v>0.7742832077490363</v>
+        <v>0.00806958879791253</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1513341986818375</v>
       </c>
       <c r="K17">
-        <v>1.243630630244297</v>
+        <v>0.08602591998590814</v>
       </c>
       <c r="L17">
-        <v>0.2985015267797024</v>
+        <v>0.1565605603561266</v>
       </c>
       <c r="M17">
-        <v>0.3222666308630266</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1263,52 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.5619823499710748</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.294345722216264</v>
+        <v>4.84989688808588</v>
       </c>
       <c r="C18">
-        <v>0.1546915667130122</v>
+        <v>1.356823599025915</v>
       </c>
       <c r="D18">
-        <v>0.06586172843691429</v>
+        <v>0.3890365371882893</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.118446016868958</v>
+        <v>0.4569742634102454</v>
       </c>
       <c r="G18">
-        <v>1.030612908196602</v>
+        <v>0.1598851476588905</v>
       </c>
       <c r="H18">
-        <v>0.6693760289571458</v>
+        <v>0.07425774107147021</v>
       </c>
       <c r="I18">
-        <v>0.7692370559678849</v>
+        <v>0.007607613217746945</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1634937092311333</v>
       </c>
       <c r="K18">
-        <v>1.212240124853224</v>
+        <v>0.08843376756927035</v>
       </c>
       <c r="L18">
-        <v>0.2926813312573415</v>
+        <v>0.2373482426226943</v>
       </c>
       <c r="M18">
-        <v>0.3143152389537107</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1316,52 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.6316341658947238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.282874399789677</v>
+        <v>4.811648737019652</v>
       </c>
       <c r="C19">
-        <v>0.1539889479769556</v>
+        <v>1.369300921912213</v>
       </c>
       <c r="D19">
-        <v>0.0657086731546741</v>
+        <v>0.4859250774580062</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.11317796088278</v>
+        <v>0.540092155993328</v>
       </c>
       <c r="G19">
-        <v>1.026160907946362</v>
+        <v>0.1886982586651698</v>
       </c>
       <c r="H19">
-        <v>0.6678965887076487</v>
+        <v>0.02980589436835857</v>
       </c>
       <c r="I19">
-        <v>0.7675545686227352</v>
+        <v>0.007854716981250398</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1786686645924078</v>
       </c>
       <c r="K19">
-        <v>1.201624843359497</v>
+        <v>0.090680107221768</v>
       </c>
       <c r="L19">
-        <v>0.2907181882462027</v>
+        <v>0.384257303363313</v>
       </c>
       <c r="M19">
-        <v>0.311628631575708</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1369,52 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.7245046401316984</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.334562981720524</v>
+        <v>5.000421768799924</v>
       </c>
       <c r="C20">
-        <v>0.1571527031949813</v>
+        <v>1.453119186943411</v>
       </c>
       <c r="D20">
-        <v>0.06639665032880515</v>
+        <v>0.675097728296322</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.137038060066971</v>
+        <v>0.695023100611813</v>
       </c>
       <c r="G20">
-        <v>1.046349781358131</v>
+        <v>0.2417312515075167</v>
       </c>
       <c r="H20">
-        <v>0.6746373127945162</v>
+        <v>0.006749722097720845</v>
       </c>
       <c r="I20">
-        <v>0.7752296452712457</v>
+        <v>0.009260979421008564</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2032918289646801</v>
       </c>
       <c r="K20">
-        <v>1.249446646734185</v>
+        <v>0.09207017571093434</v>
       </c>
       <c r="L20">
-        <v>0.2995823141051801</v>
+        <v>0.7082683826765361</v>
       </c>
       <c r="M20">
-        <v>0.3237409617222511</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1422,52 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.8886673454395861</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.509496128833064</v>
+        <v>5.619735607163648</v>
       </c>
       <c r="C21">
-        <v>0.1678231283838585</v>
+        <v>1.62647943343444</v>
       </c>
       <c r="D21">
-        <v>0.06869460447690301</v>
+        <v>0.7656382432687394</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.220024741775376</v>
+        <v>0.7609243580807998</v>
       </c>
       <c r="G21">
-        <v>1.117022944549817</v>
+        <v>0.263821727716369</v>
       </c>
       <c r="H21">
-        <v>0.6988022093241284</v>
+        <v>0.01014477886881368</v>
       </c>
       <c r="I21">
-        <v>0.8029117693160472</v>
+        <v>0.01234372641849912</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2076080388053185</v>
       </c>
       <c r="K21">
-        <v>1.411126533362136</v>
+        <v>0.08138616375749752</v>
       </c>
       <c r="L21">
-        <v>0.3299150398820814</v>
+        <v>0.8171278281589736</v>
       </c>
       <c r="M21">
-        <v>0.3648559355074781</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1475,52 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.9449106612530755</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.624902958225135</v>
+        <v>6.024497528179324</v>
       </c>
       <c r="C22">
-        <v>0.1748367778724855</v>
+        <v>1.73280289942187</v>
       </c>
       <c r="D22">
-        <v>0.07018667836161541</v>
+        <v>0.8155464100983068</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.276538251729008</v>
+        <v>0.7996446133259667</v>
       </c>
       <c r="G22">
-        <v>1.165507080085774</v>
+        <v>0.2778600905104867</v>
       </c>
       <c r="H22">
-        <v>0.7158061893620129</v>
+        <v>0.01259112616649311</v>
       </c>
       <c r="I22">
-        <v>0.8225178125187256</v>
+        <v>0.01430927474030241</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2103218376817608</v>
       </c>
       <c r="K22">
-        <v>1.517667107713663</v>
+        <v>0.07496555090872192</v>
       </c>
       <c r="L22">
-        <v>0.3501870482429581</v>
+        <v>0.8714429069962648</v>
       </c>
       <c r="M22">
-        <v>0.3920761827656705</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1528,52 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.9805886797026346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.563200574820911</v>
+        <v>5.808538770443249</v>
       </c>
       <c r="C23">
-        <v>0.1710891619738959</v>
+        <v>1.670409073764802</v>
       </c>
       <c r="D23">
-        <v>0.06939120150154565</v>
+        <v>0.7881464830773837</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.246155879992159</v>
+        <v>0.7807525323419355</v>
       </c>
       <c r="G23">
-        <v>1.139408306398693</v>
+        <v>0.2715947606656925</v>
       </c>
       <c r="H23">
-        <v>0.7066146884666722</v>
+        <v>0.01126172428377517</v>
       </c>
       <c r="I23">
-        <v>0.8119083384052317</v>
+        <v>0.01298088381523588</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2095138396370615</v>
       </c>
       <c r="K23">
-        <v>1.460716160928712</v>
+        <v>0.07868921605972901</v>
       </c>
       <c r="L23">
-        <v>0.3393240130065465</v>
+        <v>0.8424601359714359</v>
       </c>
       <c r="M23">
-        <v>0.3775138094211172</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1581,52 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.9654894544682833</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.331720053810187</v>
+        <v>4.990833655238589</v>
       </c>
       <c r="C24">
-        <v>0.1569788353291699</v>
+        <v>1.444190497974034</v>
       </c>
       <c r="D24">
-        <v>0.06635892167256685</v>
+        <v>0.6859910011172587</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.135717596414665</v>
+        <v>0.7080193466220663</v>
       </c>
       <c r="G24">
-        <v>1.045230849283882</v>
+        <v>0.2472293862367536</v>
       </c>
       <c r="H24">
-        <v>0.6742616333176414</v>
+        <v>0.006810977059044321</v>
       </c>
       <c r="I24">
-        <v>0.7748012869130676</v>
+        <v>0.008842454799052213</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2061943068145027</v>
       </c>
       <c r="K24">
-        <v>1.246817023477234</v>
+        <v>0.09330773831287065</v>
       </c>
       <c r="L24">
-        <v>0.2990935596036621</v>
+        <v>0.7330245673993971</v>
       </c>
       <c r="M24">
-        <v>0.3230743233032669</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,52 +1634,64 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.906399168913893</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.085815144671983</v>
+        <v>4.108777074735997</v>
       </c>
       <c r="C25">
-        <v>0.1418695735402622</v>
+        <v>1.201655084434833</v>
       </c>
       <c r="D25">
-        <v>0.06304414103468758</v>
+        <v>0.5764576819557874</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.025264533746579</v>
+        <v>0.6330974332366068</v>
       </c>
       <c r="G25">
-        <v>0.9523816138895143</v>
+        <v>0.2237632894920338</v>
       </c>
       <c r="H25">
-        <v>0.644057309672462</v>
+        <v>0.003131540228091589</v>
       </c>
       <c r="I25">
-        <v>0.740634707050944</v>
+        <v>0.005312836286574196</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2042754573188219</v>
       </c>
       <c r="K25">
-        <v>1.019059760781829</v>
+        <v>0.1111786132863175</v>
       </c>
       <c r="L25">
-        <v>0.257384434369385</v>
+        <v>0.6155329494590376</v>
       </c>
       <c r="M25">
-        <v>0.2656200039888859</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.8520822742889322</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_45/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.458644809480006</v>
+        <v>3.459675942111062</v>
       </c>
       <c r="C2">
-        <v>1.010735880341201</v>
+        <v>1.010433241149855</v>
       </c>
       <c r="D2">
-        <v>0.4944111381014693</v>
+        <v>0.4943976624022923</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5850427887960237</v>
+        <v>0.5844378399563084</v>
       </c>
       <c r="G2">
-        <v>0.2117258568184326</v>
+        <v>0.1946207262513795</v>
       </c>
       <c r="H2">
-        <v>0.001256229744964754</v>
+        <v>0.001201920194829231</v>
       </c>
       <c r="I2">
-        <v>0.002790283130902793</v>
+        <v>0.002964769591742744</v>
       </c>
       <c r="J2">
-        <v>0.2058179522684185</v>
+        <v>0.2464578125265433</v>
       </c>
       <c r="K2">
-        <v>0.1269129800502569</v>
+        <v>0.1254678760914159</v>
       </c>
       <c r="L2">
-        <v>0.5293176010522131</v>
+        <v>0.08902047124892842</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.01969127460403597</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.5285032194974377</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -472,51 +478,57 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.8293627754048458</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.8296873830243356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.016986733431736</v>
+        <v>3.019264318955379</v>
       </c>
       <c r="C3">
-        <v>0.8894791820290209</v>
+        <v>0.8809748566495728</v>
       </c>
       <c r="D3">
-        <v>0.4399879828436326</v>
+        <v>0.4394405675093367</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5512410725175982</v>
+        <v>0.5524318110773905</v>
       </c>
       <c r="G3">
-        <v>0.2028466879874316</v>
+        <v>0.1867275864447251</v>
       </c>
       <c r="H3">
-        <v>0.0004344509566525101</v>
+        <v>0.0004219751396528082</v>
       </c>
       <c r="I3">
-        <v>0.001735290421926994</v>
+        <v>0.001982163913386348</v>
       </c>
       <c r="J3">
-        <v>0.2066115185651896</v>
+        <v>0.2460844782790517</v>
       </c>
       <c r="K3">
-        <v>0.1379568198631937</v>
+        <v>0.1358445620897086</v>
       </c>
       <c r="L3">
-        <v>0.4708756288252403</v>
+        <v>0.09430159867022159</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.02325022811530431</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.4705683701834431</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -525,51 +537,57 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.8118938678049545</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.8153496480945392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.74523745360392</v>
+        <v>2.748189195978284</v>
       </c>
       <c r="C4">
-        <v>0.8154175512584914</v>
+        <v>0.8021183162669558</v>
       </c>
       <c r="D4">
-        <v>0.4066511857093928</v>
+        <v>0.4058088547729994</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5310197799844971</v>
+        <v>0.5331835012302122</v>
       </c>
       <c r="G4">
-        <v>0.1978329949246458</v>
+        <v>0.1823033234286058</v>
       </c>
       <c r="H4">
-        <v>0.0001332486261711452</v>
+        <v>0.0001331582720380808</v>
       </c>
       <c r="I4">
-        <v>0.001244933156650418</v>
+        <v>0.001511941734467559</v>
       </c>
       <c r="J4">
-        <v>0.2073977094366768</v>
+        <v>0.2459823780745367</v>
       </c>
       <c r="K4">
-        <v>0.145141991552912</v>
+        <v>0.1425617647792063</v>
       </c>
       <c r="L4">
-        <v>0.4349671696723334</v>
+        <v>0.0978740673065932</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.02587473424987863</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.4349632586224033</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -578,51 +596,57 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.8027149775212621</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.8077433376566461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.634320263838958</v>
+        <v>2.637526293024905</v>
       </c>
       <c r="C5">
-        <v>0.7866802247026214</v>
+        <v>0.7714517941226973</v>
       </c>
       <c r="D5">
-        <v>0.3932650950375063</v>
+        <v>0.3923063511122251</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5224301373883051</v>
+        <v>0.5249682424864517</v>
       </c>
       <c r="G5">
-        <v>0.1955590834430367</v>
+        <v>0.1802750357821097</v>
       </c>
       <c r="H5">
-        <v>5.8676173948502E-05</v>
+        <v>6.051740074664025E-05</v>
       </c>
       <c r="I5">
-        <v>0.001142003416845228</v>
+        <v>0.00142422676831977</v>
       </c>
       <c r="J5">
-        <v>0.2076116800820458</v>
+        <v>0.2457887916078221</v>
       </c>
       <c r="K5">
-        <v>0.1480582911856492</v>
+        <v>0.1452725992275985</v>
       </c>
       <c r="L5">
-        <v>0.4203153793256575</v>
+        <v>0.09931960388050598</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0270605195236453</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.4204335416592926</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -631,51 +655,57 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.7982603587160497</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.8038625288552623</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.615866372275775</v>
+        <v>2.619112771965774</v>
       </c>
       <c r="C6">
-        <v>0.7835733809830288</v>
+        <v>0.7679840554452539</v>
       </c>
       <c r="D6">
-        <v>0.3912671170809006</v>
+        <v>0.3902837306954154</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5204306578833098</v>
+        <v>0.523040826591604</v>
       </c>
       <c r="G6">
-        <v>0.1947793920539596</v>
+        <v>0.1795482978259741</v>
       </c>
       <c r="H6">
-        <v>4.900690172693345E-05</v>
+        <v>5.098529820579678E-05</v>
       </c>
       <c r="I6">
-        <v>0.001207899831230819</v>
+        <v>0.001509298091470157</v>
       </c>
       <c r="J6">
-        <v>0.2074333111649338</v>
+        <v>0.2455354147890674</v>
       </c>
       <c r="K6">
-        <v>0.1484158011123538</v>
+        <v>0.1455944280876387</v>
       </c>
       <c r="L6">
-        <v>0.417872249527008</v>
+        <v>0.0994522296786382</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.02727336767353794</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.4180106737191522</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -684,51 +714,57 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.7962200741785637</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.8019350465109767</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.743669629623469</v>
+        <v>2.746587228656949</v>
       </c>
       <c r="C7">
-        <v>0.8195742846161806</v>
+        <v>0.8055483324091881</v>
       </c>
       <c r="D7">
-        <v>0.4070831415147325</v>
+        <v>0.4065753445082834</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5293182472284457</v>
+        <v>0.5306012267834177</v>
       </c>
       <c r="G7">
-        <v>0.1966873922760044</v>
+        <v>0.1832728826536609</v>
       </c>
       <c r="H7">
-        <v>0.0001314680506188104</v>
+        <v>0.0001307812307238532</v>
       </c>
       <c r="I7">
-        <v>0.001449519508875952</v>
+        <v>0.00175836757993153</v>
       </c>
       <c r="J7">
-        <v>0.2068055901446613</v>
+        <v>0.2421380167022704</v>
       </c>
       <c r="K7">
-        <v>0.1448222056466886</v>
+        <v>0.1421310487131704</v>
       </c>
       <c r="L7">
-        <v>0.4347442843353804</v>
+        <v>0.09751002716256174</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.02591129294188033</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.4347143278332055</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -737,51 +773,57 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.7990450805304619</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.8020868584418395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.306373786279607</v>
+        <v>3.30773201400666</v>
       </c>
       <c r="C8">
-        <v>0.9749128840945502</v>
+        <v>0.9696363966776289</v>
       </c>
       <c r="D8">
-        <v>0.4764427314272268</v>
+        <v>0.4774009468403619</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5711771670275354</v>
+        <v>0.5682210836157537</v>
       </c>
       <c r="G8">
-        <v>0.2070980494235357</v>
+        <v>0.1973530183037582</v>
       </c>
       <c r="H8">
-        <v>0.000927053778864817</v>
+        <v>0.0008850054627067561</v>
       </c>
       <c r="I8">
-        <v>0.002638540526296751</v>
+        <v>0.002888467665313144</v>
       </c>
       <c r="J8">
-        <v>0.2052466910012569</v>
+        <v>0.2350329537213867</v>
       </c>
       <c r="K8">
-        <v>0.130178550781781</v>
+        <v>0.1282015451995129</v>
       </c>
       <c r="L8">
-        <v>0.5091369947310795</v>
+        <v>0.09022903846581798</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.02076898036241492</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.5084104793718467</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -790,51 +832,57 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.8182513593197314</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.81304980575716</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.406119812919485</v>
+        <v>4.403675717382441</v>
       </c>
       <c r="C9">
-        <v>1.274814647131166</v>
+        <v>1.290867223732391</v>
       </c>
       <c r="D9">
-        <v>0.6121660471452515</v>
+        <v>0.6149935212345099</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6607384071846596</v>
+        <v>0.6516592994914134</v>
       </c>
       <c r="G9">
-        <v>0.2333070651282583</v>
+        <v>0.2229541721853607</v>
       </c>
       <c r="H9">
-        <v>0.004238067107327326</v>
+        <v>0.003999689795482264</v>
       </c>
       <c r="I9">
-        <v>0.006041180327129858</v>
+        <v>0.005894260307871768</v>
       </c>
       <c r="J9">
-        <v>0.2057595728348574</v>
+        <v>0.2345825850610694</v>
       </c>
       <c r="K9">
-        <v>0.1054670028769706</v>
+        <v>0.1047606338119378</v>
       </c>
       <c r="L9">
-        <v>0.6550994538598616</v>
+        <v>0.07931142484273712</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.01429952170609239</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.6530227175949506</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -843,51 +891,57 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.8756117506146239</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.8586268653609466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.212311155641714</v>
+        <v>5.206146945135174</v>
       </c>
       <c r="C10">
-        <v>1.497168880810875</v>
+        <v>1.524899417639347</v>
       </c>
       <c r="D10">
-        <v>0.6959047327499377</v>
+        <v>0.702093406772633</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7149786936334408</v>
+        <v>0.6960849886656248</v>
       </c>
       <c r="G10">
-        <v>0.2499099391408919</v>
+        <v>0.2520159374406532</v>
       </c>
       <c r="H10">
-        <v>0.007812179053540369</v>
+        <v>0.007332297838583024</v>
       </c>
       <c r="I10">
-        <v>0.009613769824541762</v>
+        <v>0.009011849404540584</v>
       </c>
       <c r="J10">
-        <v>0.2051554457815286</v>
+        <v>0.2157112203121443</v>
       </c>
       <c r="K10">
-        <v>0.08883466916118543</v>
+        <v>0.08849620312586959</v>
       </c>
       <c r="L10">
-        <v>0.7292162009933492</v>
+        <v>0.07258961229668737</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.01136291337771222</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.7259816345094237</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -896,51 +950,57 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.9100340891421297</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.8722803208862899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.574589618984078</v>
+        <v>5.566627055921117</v>
       </c>
       <c r="C11">
-        <v>1.579586918988696</v>
+        <v>1.593266047475822</v>
       </c>
       <c r="D11">
-        <v>0.593177653449743</v>
+        <v>0.6017626825902482</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6190258577543304</v>
+        <v>0.5937696265332235</v>
       </c>
       <c r="G11">
-        <v>0.2153403699567562</v>
+        <v>0.2457997918416055</v>
       </c>
       <c r="H11">
-        <v>0.02586634042207336</v>
+        <v>0.02532358091175269</v>
       </c>
       <c r="I11">
-        <v>0.0112724781054423</v>
+        <v>0.01053451826869001</v>
       </c>
       <c r="J11">
-        <v>0.1838677602674821</v>
+        <v>0.1690116809213293</v>
       </c>
       <c r="K11">
-        <v>0.07708286738768111</v>
+        <v>0.07828185013750144</v>
       </c>
       <c r="L11">
-        <v>0.5027574091893001</v>
+        <v>0.06934575196436876</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.008246774938076129</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.4993081944547697</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -949,51 +1009,57 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.7923397877497109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.7403899030227876</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.710139747024414</v>
+        <v>5.70162413126053</v>
       </c>
       <c r="C12">
-        <v>1.593944580971879</v>
+        <v>1.595297948201846</v>
       </c>
       <c r="D12">
-        <v>0.495994970366155</v>
+        <v>0.5043652511490393</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5343109498711485</v>
+        <v>0.5094677553818414</v>
       </c>
       <c r="G12">
-        <v>0.1859196001036381</v>
+        <v>0.2280358316846574</v>
       </c>
       <c r="H12">
-        <v>0.06380095177977552</v>
+        <v>0.06326408075982926</v>
       </c>
       <c r="I12">
-        <v>0.01153565776837961</v>
+        <v>0.01072545443220729</v>
       </c>
       <c r="J12">
-        <v>0.1675019839802161</v>
+        <v>0.1484735992879749</v>
       </c>
       <c r="K12">
-        <v>0.07258246019523798</v>
+        <v>0.07520944671503105</v>
       </c>
       <c r="L12">
-        <v>0.3369854944678252</v>
+        <v>0.06890796152222967</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.006819537465383885</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.3336852895663753</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1002,51 +1068,57 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.6957439644456684</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.6441847638516123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.677632462951124</v>
+        <v>5.669623694744928</v>
       </c>
       <c r="C13">
-        <v>1.563866767567617</v>
+        <v>1.555143338080597</v>
       </c>
       <c r="D13">
-        <v>0.3989456134221427</v>
+        <v>0.4047956943497724</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4510744502150743</v>
+        <v>0.4327080513438801</v>
       </c>
       <c r="G13">
-        <v>0.1569504394350574</v>
+        <v>0.1943770482907965</v>
       </c>
       <c r="H13">
-        <v>0.1185688051472056</v>
+        <v>0.1180932447061167</v>
       </c>
       <c r="I13">
-        <v>0.01101316800526675</v>
+        <v>0.01027206737288289</v>
       </c>
       <c r="J13">
-        <v>0.1529805458629667</v>
+        <v>0.1432077843385215</v>
       </c>
       <c r="K13">
-        <v>0.07262500600635291</v>
+        <v>0.07625342984497641</v>
       </c>
       <c r="L13">
-        <v>0.2086686228985855</v>
+        <v>0.06963568276947196</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.006512215919726422</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.2057696340265593</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1055,51 +1127,57 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.6038750931272858</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.5660940503295393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.578701949377319</v>
+        <v>5.57150090022219</v>
       </c>
       <c r="C14">
-        <v>1.524201797662101</v>
+        <v>1.50937812881125</v>
       </c>
       <c r="D14">
-        <v>0.3329136860785979</v>
+        <v>0.3363426190918375</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.3943862819322206</v>
+        <v>0.3824479288614882</v>
       </c>
       <c r="G14">
-        <v>0.1370430702807539</v>
+        <v>0.1652634197230398</v>
       </c>
       <c r="H14">
-        <v>0.1671721477755739</v>
+        <v>0.1667579417502054</v>
       </c>
       <c r="I14">
-        <v>0.01038284891964469</v>
+        <v>0.00976431776134401</v>
       </c>
       <c r="J14">
-        <v>0.1436851595700332</v>
+        <v>0.1445044147131789</v>
       </c>
       <c r="K14">
-        <v>0.07486785033875609</v>
+        <v>0.07872164239167923</v>
       </c>
       <c r="L14">
-        <v>0.1418343842099645</v>
+        <v>0.07049023650748065</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.006900663909663263</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1392926144945577</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1108,51 +1186,57 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.5421321564084138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.5183934243664936</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.51872355402412</v>
+        <v>5.511933368842961</v>
       </c>
       <c r="C15">
-        <v>1.507085495685203</v>
+        <v>1.491119980401379</v>
       </c>
       <c r="D15">
-        <v>0.3161210652145456</v>
+        <v>0.3186646337225056</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.3799001808757438</v>
+        <v>0.3703909348354486</v>
       </c>
       <c r="G15">
-        <v>0.1318147315431162</v>
+        <v>0.1554573670903139</v>
       </c>
       <c r="H15">
-        <v>0.1793927132342361</v>
+        <v>0.1790051181230154</v>
       </c>
       <c r="I15">
-        <v>0.0101645203193037</v>
+        <v>0.009626497496834752</v>
       </c>
       <c r="J15">
-        <v>0.1415838768555986</v>
+        <v>0.1469156816084904</v>
       </c>
       <c r="K15">
-        <v>0.07619066675662411</v>
+        <v>0.07994286902453229</v>
       </c>
       <c r="L15">
-        <v>0.1283651886188082</v>
+        <v>0.07079236588532112</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.007200524629020322</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1259541072805384</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1161,51 +1245,57 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.5266089881541092</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.5082927443533691</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.177309798965439</v>
+        <v>5.172483539322855</v>
       </c>
       <c r="C16">
-        <v>1.420537858703199</v>
+        <v>1.407421669023961</v>
       </c>
       <c r="D16">
-        <v>0.3029188472604574</v>
+        <v>0.3027085207373119</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.3740705922874525</v>
+        <v>0.3723673107341199</v>
       </c>
       <c r="G16">
-        <v>0.1300044858146663</v>
+        <v>0.134478586872028</v>
       </c>
       <c r="H16">
-        <v>0.1653953474074399</v>
+        <v>0.1651213701846785</v>
       </c>
       <c r="I16">
-        <v>0.00876600012393336</v>
+        <v>0.008506349886609144</v>
       </c>
       <c r="J16">
-        <v>0.1443277447750759</v>
+        <v>0.1685778794616652</v>
       </c>
       <c r="K16">
-        <v>0.08242338842760732</v>
+        <v>0.08515346510741706</v>
       </c>
       <c r="L16">
-        <v>0.1266758046544929</v>
+        <v>0.07160784522449948</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.008828274708494233</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1247113770535684</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1214,51 +1304,57 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.52831651567341</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.5276798519903139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.968632380649581</v>
+        <v>4.964794767138471</v>
       </c>
       <c r="C17">
-        <v>1.375545477278251</v>
+        <v>1.366840517360401</v>
       </c>
       <c r="D17">
-        <v>0.3267000940836056</v>
+        <v>0.3256902693133128</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3989577053595212</v>
+        <v>0.3996110620666613</v>
       </c>
       <c r="G17">
-        <v>0.1390178920058958</v>
+        <v>0.1352945253212283</v>
       </c>
       <c r="H17">
-        <v>0.1270331558232272</v>
+        <v>0.1268083255405372</v>
       </c>
       <c r="I17">
-        <v>0.00806958879791253</v>
+        <v>0.007948368253792637</v>
       </c>
       <c r="J17">
-        <v>0.1513341986818375</v>
+        <v>0.1845808638249906</v>
       </c>
       <c r="K17">
-        <v>0.08602591998590814</v>
+        <v>0.08823794664380902</v>
       </c>
       <c r="L17">
-        <v>0.1565605603561266</v>
+        <v>0.07222792653074706</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.009818822625645707</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1547620978617346</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1267,51 +1363,57 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.5619823499710748</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.5666991861065185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.84989688808588</v>
+        <v>4.8464525715126</v>
       </c>
       <c r="C18">
-        <v>1.356823599025915</v>
+        <v>1.35579343380175</v>
       </c>
       <c r="D18">
-        <v>0.3890365371882893</v>
+        <v>0.3882731456141926</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4569742634102454</v>
+        <v>0.4569690386794747</v>
       </c>
       <c r="G18">
-        <v>0.1598851476588905</v>
+        <v>0.1515648765908679</v>
       </c>
       <c r="H18">
-        <v>0.07425774107147021</v>
+        <v>0.07404129542875637</v>
       </c>
       <c r="I18">
-        <v>0.007607613217746945</v>
+        <v>0.007489266414665074</v>
       </c>
       <c r="J18">
-        <v>0.1634937092311333</v>
+        <v>0.2003987425372316</v>
       </c>
       <c r="K18">
-        <v>0.08843376756927035</v>
+        <v>0.09030036658305418</v>
       </c>
       <c r="L18">
-        <v>0.2373482426226943</v>
+        <v>0.07290996908987046</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.01043934834041852</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2355178237051661</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1320,51 +1422,57 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.6316341658947238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.6348782068752854</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.811648737019652</v>
+        <v>4.80811800069813</v>
       </c>
       <c r="C19">
-        <v>1.369300921912213</v>
+        <v>1.378377891601247</v>
       </c>
       <c r="D19">
-        <v>0.4859250774580062</v>
+        <v>0.4861922515318895</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.540092155993328</v>
+        <v>0.5372537973315517</v>
       </c>
       <c r="G19">
-        <v>0.1886982586651698</v>
+        <v>0.1773424804041426</v>
       </c>
       <c r="H19">
-        <v>0.02980589436835857</v>
+        <v>0.02956034438889077</v>
       </c>
       <c r="I19">
-        <v>0.007854716981250398</v>
+        <v>0.007747306437343227</v>
       </c>
       <c r="J19">
-        <v>0.1786686645924078</v>
+        <v>0.2159192002573036</v>
       </c>
       <c r="K19">
-        <v>0.090680107221768</v>
+        <v>0.09206419578305158</v>
       </c>
       <c r="L19">
-        <v>0.384257303363313</v>
+        <v>0.0737511739089132</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.01101251166480943</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.3822191464402351</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1373,51 +1481,57 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.7245046401316984</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.7215368373977498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.000421768799924</v>
+        <v>4.99544556356409</v>
       </c>
       <c r="C20">
-        <v>1.453119186943411</v>
+        <v>1.479693617591749</v>
       </c>
       <c r="D20">
-        <v>0.675097728296322</v>
+        <v>0.6790415516723272</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.695023100611813</v>
+        <v>0.6822352888156331</v>
       </c>
       <c r="G20">
-        <v>0.2417312515075167</v>
+        <v>0.2329168589170507</v>
       </c>
       <c r="H20">
-        <v>0.006749722097720845</v>
+        <v>0.006353585469532685</v>
       </c>
       <c r="I20">
-        <v>0.009260979421008564</v>
+        <v>0.008971289886139822</v>
       </c>
       <c r="J20">
-        <v>0.2032918289646801</v>
+        <v>0.2291796313490551</v>
       </c>
       <c r="K20">
-        <v>0.09207017571093434</v>
+        <v>0.09208567312764027</v>
       </c>
       <c r="L20">
-        <v>0.7082683826765361</v>
+        <v>0.07400639894886374</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.01179604725531469</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.7054353748792863</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1426,51 +1540,57 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.8886673454395861</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.8642872240907877</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.619735607163648</v>
+        <v>5.610754021360776</v>
       </c>
       <c r="C21">
-        <v>1.62647943343444</v>
+        <v>1.652888066980722</v>
       </c>
       <c r="D21">
-        <v>0.7656382432687394</v>
+        <v>0.7797454484129389</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7609243580807998</v>
+        <v>0.7217929151008775</v>
       </c>
       <c r="G21">
-        <v>0.263821727716369</v>
+        <v>0.3075669387520037</v>
       </c>
       <c r="H21">
-        <v>0.01014477886881368</v>
+        <v>0.009436496549980529</v>
       </c>
       <c r="I21">
-        <v>0.01234372641849912</v>
+        <v>0.01149856659222692</v>
       </c>
       <c r="J21">
-        <v>0.2076080388053185</v>
+        <v>0.172147090211368</v>
       </c>
       <c r="K21">
-        <v>0.08138616375749752</v>
+        <v>0.07997962502790834</v>
       </c>
       <c r="L21">
-        <v>0.8171278281589736</v>
+        <v>0.0695450718315927</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.009907660643788674</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.8128311387944223</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1479,51 +1599,57 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.9449106612530755</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.8636567760557625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.024497528179324</v>
+        <v>6.012667528630743</v>
       </c>
       <c r="C22">
-        <v>1.73280289942187</v>
+        <v>1.757440811871504</v>
       </c>
       <c r="D22">
-        <v>0.8155464100983068</v>
+        <v>0.8370078808495975</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7996446133259667</v>
+        <v>0.7417664079205082</v>
       </c>
       <c r="G22">
-        <v>0.2778600905104867</v>
+        <v>0.3635929396594264</v>
       </c>
       <c r="H22">
-        <v>0.01259112616649311</v>
+        <v>0.01164855780139806</v>
       </c>
       <c r="I22">
-        <v>0.01430927474030241</v>
+        <v>0.01298054427210804</v>
       </c>
       <c r="J22">
-        <v>0.2103218376817608</v>
+        <v>0.1418481861802192</v>
       </c>
       <c r="K22">
-        <v>0.07496555090872192</v>
+        <v>0.07259130862063312</v>
       </c>
       <c r="L22">
-        <v>0.8714429069962648</v>
+        <v>0.06714245306281308</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.00898983728846936</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.8661885763389705</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1532,51 +1658,57 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.9805886797026346</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.8590349947985629</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.808538770443249</v>
+        <v>5.798344567888478</v>
       </c>
       <c r="C23">
-        <v>1.670409073764802</v>
+        <v>1.697728832140172</v>
       </c>
       <c r="D23">
-        <v>0.7881464830773837</v>
+        <v>0.8046568173125195</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7807525323419355</v>
+        <v>0.7352466541302363</v>
       </c>
       <c r="G23">
-        <v>0.2715947606656925</v>
+        <v>0.3280966375429983</v>
       </c>
       <c r="H23">
-        <v>0.01126172428377517</v>
+        <v>0.01045659081987924</v>
       </c>
       <c r="I23">
-        <v>0.01298088381523588</v>
+        <v>0.01186366542961803</v>
       </c>
       <c r="J23">
-        <v>0.2095138396370615</v>
+        <v>0.1622051667993745</v>
       </c>
       <c r="K23">
-        <v>0.07868921605972901</v>
+        <v>0.07688152683786242</v>
       </c>
       <c r="L23">
-        <v>0.8424601359714359</v>
+        <v>0.06845747128288027</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.009682009856601503</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.8377733197412738</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1585,51 +1717,57 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.9654894544682833</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.8703839464014607</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.990833655238589</v>
+        <v>4.985866596583492</v>
       </c>
       <c r="C24">
-        <v>1.444190497974034</v>
+        <v>1.471935413233552</v>
       </c>
       <c r="D24">
-        <v>0.6859910011172587</v>
+        <v>0.6900691478260796</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7080193466220663</v>
+        <v>0.6948417794842854</v>
       </c>
       <c r="G24">
-        <v>0.2472293862367536</v>
+        <v>0.2376849916879138</v>
       </c>
       <c r="H24">
-        <v>0.006810977059044321</v>
+        <v>0.006409695692758621</v>
       </c>
       <c r="I24">
-        <v>0.008842454799052213</v>
+        <v>0.00845240899537103</v>
       </c>
       <c r="J24">
-        <v>0.2061943068145027</v>
+        <v>0.2323912608319674</v>
       </c>
       <c r="K24">
-        <v>0.09330773831287065</v>
+        <v>0.09310288916148757</v>
       </c>
       <c r="L24">
-        <v>0.7330245673993971</v>
+        <v>0.07439999137728459</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.01217269498522189</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.7301655228213093</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1638,51 +1776,57 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.906399168913893</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.8811189679198606</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.108777074735997</v>
+        <v>4.107531715819448</v>
       </c>
       <c r="C25">
-        <v>1.201655084434833</v>
+        <v>1.212474931067163</v>
       </c>
       <c r="D25">
-        <v>0.5764576819557874</v>
+        <v>0.5782149960787422</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6330974332366068</v>
+        <v>0.6271990411861665</v>
       </c>
       <c r="G25">
-        <v>0.2237632894920338</v>
+        <v>0.2106258944415842</v>
       </c>
       <c r="H25">
-        <v>0.003131540228091589</v>
+        <v>0.002964357061256084</v>
       </c>
       <c r="I25">
-        <v>0.005312836286574196</v>
+        <v>0.005390726498866627</v>
       </c>
       <c r="J25">
-        <v>0.2042754573188219</v>
+        <v>0.2379617976080013</v>
       </c>
       <c r="K25">
-        <v>0.1111786132863175</v>
+        <v>0.1103784710942661</v>
       </c>
       <c r="L25">
-        <v>0.6155329494590376</v>
+        <v>0.08177734130774805</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.01555444880537515</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.6138714289313612</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,7 +1835,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.8520822742889322</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.8417726243317674</v>
       </c>
     </row>
   </sheetData>
